--- a/kfc_mongolia_price_data_2023418.xlsx
+++ b/kfc_mongolia_price_data_2023418.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundui_Personal\things\kfc-mongolia-scraper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFBAE50-C510-460C-B608-76C45F2C3BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7095" yWindow="2085" windowWidth="19470" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="149">
   <si>
     <t>names</t>
   </si>
@@ -459,12 +465,15 @@
   <si>
     <t>my test mn</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,9 +547,101 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072BF70C-4EA4-4473-AAE9-D958F632372C}" name="Table1" displayName="Table1" ref="A1:F760" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:F760" xr:uid="{072BF70C-4EA4-4473-AAE9-D958F632372C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{434FC021-728B-4C3F-AF6B-2181A6422674}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6A11C79F-EC99-4ADB-B6FA-BAEA5BE86416}" name="names"/>
+    <tableColumn id="3" xr3:uid="{323667C5-D5F2-44F0-AA64-7137F42ADDC7}" name="prices"/>
+    <tableColumn id="4" xr3:uid="{03647612-EAD9-48D5-8C0E-C928773F87D9}" name="categories"/>
+    <tableColumn id="5" xr3:uid="{C938C451-49E3-45DE-81E9-8E94F0223BF9}" name="image" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{E9E5D53C-2721-4088-A9C8-73C3365BB76F}" name="store"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,7 +687,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,9 +719,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,6 +771,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -827,14 +964,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F760"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -871,7 +1021,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -891,7 +1041,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -911,7 +1061,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -931,7 +1081,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -951,7 +1101,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -971,7 +1121,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -991,7 +1141,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1011,7 +1161,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1031,7 +1181,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1051,7 +1201,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1071,7 +1221,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1091,7 +1241,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1111,7 +1261,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1131,7 +1281,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1151,7 +1301,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1171,7 +1321,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1191,7 +1341,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1211,7 +1361,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1231,7 +1381,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1251,7 +1401,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1271,7 +1421,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1291,7 +1441,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1311,7 +1461,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1331,7 +1481,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1351,7 +1501,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1371,7 +1521,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1391,7 +1541,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1411,7 +1561,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1431,7 +1581,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1451,7 +1601,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1471,7 +1621,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1491,7 +1641,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1511,7 +1661,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1531,7 +1681,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1551,7 +1701,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1571,7 +1721,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1591,7 +1741,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1611,7 +1761,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1631,7 +1781,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1651,7 +1801,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1671,7 +1821,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1691,7 +1841,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1711,7 +1861,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1731,7 +1881,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1751,7 +1901,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1771,7 +1921,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -1791,7 +1941,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -1811,7 +1961,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -1831,7 +1981,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -1851,7 +2001,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>4</v>
       </c>
@@ -1871,7 +2021,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>5</v>
       </c>
@@ -1891,7 +2041,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>6</v>
       </c>
@@ -1911,7 +2061,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>7</v>
       </c>
@@ -1931,7 +2081,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>8</v>
       </c>
@@ -1951,7 +2101,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>9</v>
       </c>
@@ -1971,7 +2121,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>10</v>
       </c>
@@ -1991,7 +2141,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2011,7 +2161,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>12</v>
       </c>
@@ -2031,7 +2181,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>13</v>
       </c>
@@ -2051,7 +2201,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>14</v>
       </c>
@@ -2071,7 +2221,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>15</v>
       </c>
@@ -2091,7 +2241,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>16</v>
       </c>
@@ -2111,7 +2261,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>17</v>
       </c>
@@ -2131,7 +2281,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>18</v>
       </c>
@@ -2151,7 +2301,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>19</v>
       </c>
@@ -2171,7 +2321,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>20</v>
       </c>
@@ -2191,7 +2341,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>21</v>
       </c>
@@ -2211,7 +2361,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>22</v>
       </c>
@@ -2231,7 +2381,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>23</v>
       </c>
@@ -2251,7 +2401,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>24</v>
       </c>
@@ -2271,7 +2421,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>25</v>
       </c>
@@ -2291,7 +2441,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>26</v>
       </c>
@@ -2311,7 +2461,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>27</v>
       </c>
@@ -2331,7 +2481,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>28</v>
       </c>
@@ -2351,7 +2501,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>29</v>
       </c>
@@ -2371,7 +2521,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>30</v>
       </c>
@@ -2391,7 +2541,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>31</v>
       </c>
@@ -2411,7 +2561,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>32</v>
       </c>
@@ -2431,7 +2581,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>33</v>
       </c>
@@ -2451,7 +2601,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>34</v>
       </c>
@@ -2471,7 +2621,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>35</v>
       </c>
@@ -2491,7 +2641,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>36</v>
       </c>
@@ -2511,7 +2661,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>37</v>
       </c>
@@ -2531,7 +2681,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>38</v>
       </c>
@@ -2551,7 +2701,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>39</v>
       </c>
@@ -2571,7 +2721,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>40</v>
       </c>
@@ -2591,7 +2741,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -2611,7 +2761,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1</v>
       </c>
@@ -2631,7 +2781,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -2651,7 +2801,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>3</v>
       </c>
@@ -2671,7 +2821,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>4</v>
       </c>
@@ -2691,7 +2841,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>5</v>
       </c>
@@ -2711,7 +2861,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>6</v>
       </c>
@@ -2731,7 +2881,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>7</v>
       </c>
@@ -2751,7 +2901,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>8</v>
       </c>
@@ -2771,7 +2921,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>9</v>
       </c>
@@ -2791,7 +2941,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>10</v>
       </c>
@@ -2811,7 +2961,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>11</v>
       </c>
@@ -2831,7 +2981,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>12</v>
       </c>
@@ -2851,7 +3001,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>13</v>
       </c>
@@ -2871,7 +3021,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>14</v>
       </c>
@@ -2891,7 +3041,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>15</v>
       </c>
@@ -2911,7 +3061,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>16</v>
       </c>
@@ -2931,7 +3081,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>17</v>
       </c>
@@ -2951,7 +3101,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>18</v>
       </c>
@@ -2971,7 +3121,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>19</v>
       </c>
@@ -2991,7 +3141,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>20</v>
       </c>
@@ -3011,7 +3161,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>21</v>
       </c>
@@ -3031,7 +3181,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>22</v>
       </c>
@@ -3051,7 +3201,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>23</v>
       </c>
@@ -3071,7 +3221,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>24</v>
       </c>
@@ -3091,7 +3241,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>25</v>
       </c>
@@ -3111,7 +3261,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>26</v>
       </c>
@@ -3131,7 +3281,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>27</v>
       </c>
@@ -3151,7 +3301,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>28</v>
       </c>
@@ -3171,7 +3321,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>29</v>
       </c>
@@ -3191,7 +3341,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>30</v>
       </c>
@@ -3211,7 +3361,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>31</v>
       </c>
@@ -3231,7 +3381,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>32</v>
       </c>
@@ -3251,7 +3401,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>33</v>
       </c>
@@ -3271,7 +3421,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>34</v>
       </c>
@@ -3291,7 +3441,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>35</v>
       </c>
@@ -3311,7 +3461,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>36</v>
       </c>
@@ -3331,7 +3481,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>37</v>
       </c>
@@ -3351,7 +3501,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>38</v>
       </c>
@@ -3371,7 +3521,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>39</v>
       </c>
@@ -3391,7 +3541,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>40</v>
       </c>
@@ -3411,7 +3561,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>41</v>
       </c>
@@ -3431,7 +3581,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>42</v>
       </c>
@@ -3451,7 +3601,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43</v>
       </c>
@@ -3471,7 +3621,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44</v>
       </c>
@@ -3491,7 +3641,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45</v>
       </c>
@@ -3511,7 +3661,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -3531,7 +3681,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1</v>
       </c>
@@ -3551,7 +3701,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2</v>
       </c>
@@ -3571,7 +3721,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>3</v>
       </c>
@@ -3591,7 +3741,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>4</v>
       </c>
@@ -3611,7 +3761,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>5</v>
       </c>
@@ -3631,7 +3781,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>6</v>
       </c>
@@ -3651,7 +3801,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>7</v>
       </c>
@@ -3671,7 +3821,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>8</v>
       </c>
@@ -3691,7 +3841,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>9</v>
       </c>
@@ -3711,7 +3861,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>10</v>
       </c>
@@ -3731,7 +3881,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>11</v>
       </c>
@@ -3751,7 +3901,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>12</v>
       </c>
@@ -3771,7 +3921,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>13</v>
       </c>
@@ -3791,7 +3941,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>14</v>
       </c>
@@ -3811,7 +3961,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>15</v>
       </c>
@@ -3831,7 +3981,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>16</v>
       </c>
@@ -3851,7 +4001,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>17</v>
       </c>
@@ -3871,7 +4021,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>18</v>
       </c>
@@ -3891,7 +4041,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>19</v>
       </c>
@@ -3911,7 +4061,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>20</v>
       </c>
@@ -3931,7 +4081,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>21</v>
       </c>
@@ -3951,7 +4101,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>22</v>
       </c>
@@ -3971,7 +4121,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>23</v>
       </c>
@@ -3991,7 +4141,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>24</v>
       </c>
@@ -4011,7 +4161,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>25</v>
       </c>
@@ -4031,7 +4181,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>26</v>
       </c>
@@ -4051,7 +4201,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>27</v>
       </c>
@@ -4071,7 +4221,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>28</v>
       </c>
@@ -4091,7 +4241,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>29</v>
       </c>
@@ -4111,7 +4261,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>30</v>
       </c>
@@ -4131,7 +4281,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>31</v>
       </c>
@@ -4151,7 +4301,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>32</v>
       </c>
@@ -4171,7 +4321,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>33</v>
       </c>
@@ -4191,7 +4341,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>34</v>
       </c>
@@ -4211,7 +4361,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>35</v>
       </c>
@@ -4231,7 +4381,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>36</v>
       </c>
@@ -4251,7 +4401,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>37</v>
       </c>
@@ -4271,7 +4421,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>0</v>
       </c>
@@ -4291,7 +4441,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>1</v>
       </c>
@@ -4311,7 +4461,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2</v>
       </c>
@@ -4331,7 +4481,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>3</v>
       </c>
@@ -4351,7 +4501,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>4</v>
       </c>
@@ -4371,7 +4521,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>5</v>
       </c>
@@ -4391,7 +4541,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>6</v>
       </c>
@@ -4411,7 +4561,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>7</v>
       </c>
@@ -4431,7 +4581,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>8</v>
       </c>
@@ -4451,7 +4601,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>9</v>
       </c>
@@ -4471,7 +4621,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>10</v>
       </c>
@@ -4491,7 +4641,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>11</v>
       </c>
@@ -4511,7 +4661,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>12</v>
       </c>
@@ -4531,7 +4681,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>13</v>
       </c>
@@ -4551,7 +4701,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>14</v>
       </c>
@@ -4571,7 +4721,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>15</v>
       </c>
@@ -4591,7 +4741,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>16</v>
       </c>
@@ -4611,7 +4761,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>17</v>
       </c>
@@ -4631,7 +4781,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>18</v>
       </c>
@@ -4651,7 +4801,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>19</v>
       </c>
@@ -4671,7 +4821,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>20</v>
       </c>
@@ -4691,7 +4841,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>21</v>
       </c>
@@ -4711,7 +4861,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>22</v>
       </c>
@@ -4731,7 +4881,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>23</v>
       </c>
@@ -4751,7 +4901,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>24</v>
       </c>
@@ -4771,7 +4921,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>25</v>
       </c>
@@ -4791,7 +4941,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>26</v>
       </c>
@@ -4811,7 +4961,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>27</v>
       </c>
@@ -4831,7 +4981,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>28</v>
       </c>
@@ -4851,7 +5001,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>29</v>
       </c>
@@ -4871,7 +5021,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>30</v>
       </c>
@@ -4891,7 +5041,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>31</v>
       </c>
@@ -4911,7 +5061,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>32</v>
       </c>
@@ -4931,7 +5081,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>33</v>
       </c>
@@ -4951,7 +5101,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>34</v>
       </c>
@@ -4971,7 +5121,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>35</v>
       </c>
@@ -4991,7 +5141,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>36</v>
       </c>
@@ -5011,7 +5161,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>37</v>
       </c>
@@ -5031,7 +5181,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>38</v>
       </c>
@@ -5051,7 +5201,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>39</v>
       </c>
@@ -5071,7 +5221,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>40</v>
       </c>
@@ -5091,7 +5241,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>41</v>
       </c>
@@ -5111,7 +5261,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>42</v>
       </c>
@@ -5131,7 +5281,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>43</v>
       </c>
@@ -5151,7 +5301,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44</v>
       </c>
@@ -5171,7 +5321,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>45</v>
       </c>
@@ -5191,7 +5341,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>0</v>
       </c>
@@ -5211,7 +5361,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>1</v>
       </c>
@@ -5231,7 +5381,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2</v>
       </c>
@@ -5251,7 +5401,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>3</v>
       </c>
@@ -5271,7 +5421,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>4</v>
       </c>
@@ -5291,7 +5441,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>5</v>
       </c>
@@ -5311,7 +5461,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>6</v>
       </c>
@@ -5331,7 +5481,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>7</v>
       </c>
@@ -5351,7 +5501,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>8</v>
       </c>
@@ -5371,7 +5521,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>9</v>
       </c>
@@ -5391,7 +5541,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>10</v>
       </c>
@@ -5411,7 +5561,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>11</v>
       </c>
@@ -5431,7 +5581,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>12</v>
       </c>
@@ -5451,7 +5601,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>13</v>
       </c>
@@ -5471,7 +5621,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>14</v>
       </c>
@@ -5491,7 +5641,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>15</v>
       </c>
@@ -5511,7 +5661,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>16</v>
       </c>
@@ -5531,7 +5681,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>17</v>
       </c>
@@ -5551,7 +5701,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>18</v>
       </c>
@@ -5571,7 +5721,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>19</v>
       </c>
@@ -5591,7 +5741,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>20</v>
       </c>
@@ -5611,7 +5761,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>21</v>
       </c>
@@ -5631,7 +5781,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>22</v>
       </c>
@@ -5651,7 +5801,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>23</v>
       </c>
@@ -5671,7 +5821,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>24</v>
       </c>
@@ -5691,7 +5841,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>25</v>
       </c>
@@ -5711,7 +5861,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>26</v>
       </c>
@@ -5731,7 +5881,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>27</v>
       </c>
@@ -5751,7 +5901,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>28</v>
       </c>
@@ -5771,7 +5921,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>29</v>
       </c>
@@ -5791,7 +5941,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>30</v>
       </c>
@@ -5811,7 +5961,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>31</v>
       </c>
@@ -5831,7 +5981,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>32</v>
       </c>
@@ -5851,7 +6001,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>33</v>
       </c>
@@ -5871,7 +6021,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>34</v>
       </c>
@@ -5891,7 +6041,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>35</v>
       </c>
@@ -5911,7 +6061,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>36</v>
       </c>
@@ -5931,7 +6081,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>37</v>
       </c>
@@ -5951,7 +6101,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>38</v>
       </c>
@@ -5971,7 +6121,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>39</v>
       </c>
@@ -5991,7 +6141,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>40</v>
       </c>
@@ -6011,7 +6161,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>41</v>
       </c>
@@ -6031,7 +6181,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>42</v>
       </c>
@@ -6051,7 +6201,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>43</v>
       </c>
@@ -6071,7 +6221,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>0</v>
       </c>
@@ -6091,7 +6241,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>1</v>
       </c>
@@ -6111,7 +6261,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>2</v>
       </c>
@@ -6131,7 +6281,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>3</v>
       </c>
@@ -6151,7 +6301,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>4</v>
       </c>
@@ -6171,7 +6321,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>5</v>
       </c>
@@ -6191,7 +6341,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>6</v>
       </c>
@@ -6211,7 +6361,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>7</v>
       </c>
@@ -6231,7 +6381,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>8</v>
       </c>
@@ -6251,7 +6401,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>9</v>
       </c>
@@ -6271,7 +6421,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>10</v>
       </c>
@@ -6291,7 +6441,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>11</v>
       </c>
@@ -6311,7 +6461,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>12</v>
       </c>
@@ -6331,7 +6481,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>13</v>
       </c>
@@ -6351,7 +6501,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>14</v>
       </c>
@@ -6371,7 +6521,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>15</v>
       </c>
@@ -6391,7 +6541,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>16</v>
       </c>
@@ -6411,7 +6561,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>17</v>
       </c>
@@ -6431,7 +6581,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>18</v>
       </c>
@@ -6451,7 +6601,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>19</v>
       </c>
@@ -6471,7 +6621,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>20</v>
       </c>
@@ -6491,7 +6641,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>21</v>
       </c>
@@ -6511,7 +6661,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>22</v>
       </c>
@@ -6531,7 +6681,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>23</v>
       </c>
@@ -6551,7 +6701,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>24</v>
       </c>
@@ -6571,7 +6721,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>25</v>
       </c>
@@ -6591,7 +6741,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>26</v>
       </c>
@@ -6611,7 +6761,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>27</v>
       </c>
@@ -6631,7 +6781,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>28</v>
       </c>
@@ -6651,7 +6801,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>29</v>
       </c>
@@ -6671,7 +6821,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>30</v>
       </c>
@@ -6691,7 +6841,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>31</v>
       </c>
@@ -6711,7 +6861,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>32</v>
       </c>
@@ -6731,7 +6881,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>33</v>
       </c>
@@ -6751,7 +6901,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>34</v>
       </c>
@@ -6771,7 +6921,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>35</v>
       </c>
@@ -6791,7 +6941,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>36</v>
       </c>
@@ -6811,7 +6961,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>37</v>
       </c>
@@ -6831,7 +6981,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>38</v>
       </c>
@@ -6851,7 +7001,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>39</v>
       </c>
@@ -6871,7 +7021,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>40</v>
       </c>
@@ -6891,7 +7041,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>41</v>
       </c>
@@ -6911,7 +7061,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>42</v>
       </c>
@@ -6931,7 +7081,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>0</v>
       </c>
@@ -6951,7 +7101,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>1</v>
       </c>
@@ -6971,7 +7121,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>2</v>
       </c>
@@ -6991,7 +7141,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>3</v>
       </c>
@@ -7011,7 +7161,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>4</v>
       </c>
@@ -7031,7 +7181,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>5</v>
       </c>
@@ -7051,7 +7201,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>6</v>
       </c>
@@ -7071,7 +7221,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>7</v>
       </c>
@@ -7091,7 +7241,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>8</v>
       </c>
@@ -7111,7 +7261,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>9</v>
       </c>
@@ -7131,7 +7281,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>10</v>
       </c>
@@ -7151,7 +7301,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>11</v>
       </c>
@@ -7171,7 +7321,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>12</v>
       </c>
@@ -7191,7 +7341,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>13</v>
       </c>
@@ -7211,7 +7361,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>14</v>
       </c>
@@ -7231,7 +7381,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>15</v>
       </c>
@@ -7251,7 +7401,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>16</v>
       </c>
@@ -7271,7 +7421,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>17</v>
       </c>
@@ -7291,7 +7441,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>18</v>
       </c>
@@ -7311,7 +7461,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>19</v>
       </c>
@@ -7331,7 +7481,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>20</v>
       </c>
@@ -7351,7 +7501,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>21</v>
       </c>
@@ -7371,7 +7521,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>22</v>
       </c>
@@ -7391,7 +7541,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>23</v>
       </c>
@@ -7411,7 +7561,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>24</v>
       </c>
@@ -7431,7 +7581,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>25</v>
       </c>
@@ -7451,7 +7601,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>26</v>
       </c>
@@ -7471,7 +7621,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>27</v>
       </c>
@@ -7491,7 +7641,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>28</v>
       </c>
@@ -7511,7 +7661,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>29</v>
       </c>
@@ -7531,7 +7681,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>30</v>
       </c>
@@ -7551,7 +7701,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>31</v>
       </c>
@@ -7571,7 +7721,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>32</v>
       </c>
@@ -7591,7 +7741,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>33</v>
       </c>
@@ -7611,7 +7761,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>34</v>
       </c>
@@ -7631,7 +7781,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>35</v>
       </c>
@@ -7651,7 +7801,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>36</v>
       </c>
@@ -7671,7 +7821,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>37</v>
       </c>
@@ -7691,7 +7841,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>38</v>
       </c>
@@ -7711,7 +7861,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>39</v>
       </c>
@@ -7731,7 +7881,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>40</v>
       </c>
@@ -7751,7 +7901,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>41</v>
       </c>
@@ -7771,7 +7921,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>42</v>
       </c>
@@ -7791,7 +7941,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>43</v>
       </c>
@@ -7811,7 +7961,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44</v>
       </c>
@@ -7831,7 +7981,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>45</v>
       </c>
@@ -7851,7 +8001,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>46</v>
       </c>
@@ -7871,7 +8021,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>47</v>
       </c>
@@ -7891,7 +8041,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>0</v>
       </c>
@@ -7911,7 +8061,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>1</v>
       </c>
@@ -7931,7 +8081,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>2</v>
       </c>
@@ -7951,7 +8101,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>3</v>
       </c>
@@ -7971,7 +8121,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>4</v>
       </c>
@@ -7991,7 +8141,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>5</v>
       </c>
@@ -8011,7 +8161,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>6</v>
       </c>
@@ -8031,7 +8181,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>7</v>
       </c>
@@ -8051,7 +8201,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>8</v>
       </c>
@@ -8071,7 +8221,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>9</v>
       </c>
@@ -8091,7 +8241,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>10</v>
       </c>
@@ -8111,7 +8261,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>11</v>
       </c>
@@ -8131,7 +8281,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>12</v>
       </c>
@@ -8151,7 +8301,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>13</v>
       </c>
@@ -8171,7 +8321,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>14</v>
       </c>
@@ -8191,7 +8341,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>15</v>
       </c>
@@ -8211,7 +8361,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>16</v>
       </c>
@@ -8231,7 +8381,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>17</v>
       </c>
@@ -8251,7 +8401,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>18</v>
       </c>
@@ -8271,7 +8421,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>19</v>
       </c>
@@ -8291,7 +8441,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>20</v>
       </c>
@@ -8311,7 +8461,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>21</v>
       </c>
@@ -8331,7 +8481,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>22</v>
       </c>
@@ -8351,7 +8501,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>23</v>
       </c>
@@ -8371,7 +8521,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>24</v>
       </c>
@@ -8391,7 +8541,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>25</v>
       </c>
@@ -8411,7 +8561,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>26</v>
       </c>
@@ -8431,7 +8581,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>27</v>
       </c>
@@ -8451,7 +8601,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>28</v>
       </c>
@@ -8471,7 +8621,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>29</v>
       </c>
@@ -8491,7 +8641,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>30</v>
       </c>
@@ -8511,7 +8661,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>31</v>
       </c>
@@ -8531,7 +8681,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>32</v>
       </c>
@@ -8551,7 +8701,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>33</v>
       </c>
@@ -8571,7 +8721,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>34</v>
       </c>
@@ -8591,7 +8741,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>35</v>
       </c>
@@ -8611,7 +8761,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>36</v>
       </c>
@@ -8631,7 +8781,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>37</v>
       </c>
@@ -8651,7 +8801,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>38</v>
       </c>
@@ -8671,7 +8821,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>39</v>
       </c>
@@ -8691,7 +8841,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>40</v>
       </c>
@@ -8711,7 +8861,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>41</v>
       </c>
@@ -8731,7 +8881,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>42</v>
       </c>
@@ -8751,7 +8901,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>43</v>
       </c>
@@ -8771,7 +8921,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>0</v>
       </c>
@@ -8791,7 +8941,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>1</v>
       </c>
@@ -8811,7 +8961,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>2</v>
       </c>
@@ -8831,7 +8981,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>3</v>
       </c>
@@ -8851,7 +9001,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>4</v>
       </c>
@@ -8871,7 +9021,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>5</v>
       </c>
@@ -8891,7 +9041,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>6</v>
       </c>
@@ -8911,7 +9061,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>7</v>
       </c>
@@ -8931,7 +9081,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>8</v>
       </c>
@@ -8951,7 +9101,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>9</v>
       </c>
@@ -8971,7 +9121,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>10</v>
       </c>
@@ -8991,7 +9141,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>11</v>
       </c>
@@ -9011,7 +9161,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>12</v>
       </c>
@@ -9031,7 +9181,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>13</v>
       </c>
@@ -9051,7 +9201,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>14</v>
       </c>
@@ -9071,7 +9221,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>15</v>
       </c>
@@ -9091,7 +9241,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>16</v>
       </c>
@@ -9111,7 +9261,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>17</v>
       </c>
@@ -9131,7 +9281,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>18</v>
       </c>
@@ -9151,7 +9301,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>19</v>
       </c>
@@ -9171,7 +9321,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>20</v>
       </c>
@@ -9191,7 +9341,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>21</v>
       </c>
@@ -9211,7 +9361,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>22</v>
       </c>
@@ -9231,7 +9381,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>23</v>
       </c>
@@ -9251,7 +9401,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>24</v>
       </c>
@@ -9271,7 +9421,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>25</v>
       </c>
@@ -9291,7 +9441,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>26</v>
       </c>
@@ -9311,7 +9461,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>27</v>
       </c>
@@ -9331,7 +9481,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>28</v>
       </c>
@@ -9351,7 +9501,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>29</v>
       </c>
@@ -9371,7 +9521,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>30</v>
       </c>
@@ -9391,7 +9541,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>31</v>
       </c>
@@ -9411,7 +9561,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>32</v>
       </c>
@@ -9431,7 +9581,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>33</v>
       </c>
@@ -9451,7 +9601,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>34</v>
       </c>
@@ -9471,7 +9621,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>35</v>
       </c>
@@ -9491,7 +9641,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>36</v>
       </c>
@@ -9511,7 +9661,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>37</v>
       </c>
@@ -9531,7 +9681,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>38</v>
       </c>
@@ -9551,7 +9701,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>39</v>
       </c>
@@ -9571,7 +9721,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>40</v>
       </c>
@@ -9591,7 +9741,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>41</v>
       </c>
@@ -9611,7 +9761,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>42</v>
       </c>
@@ -9631,7 +9781,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>43</v>
       </c>
@@ -9651,7 +9801,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>44</v>
       </c>
@@ -9671,7 +9821,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>45</v>
       </c>
@@ -9691,7 +9841,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>46</v>
       </c>
@@ -9711,7 +9861,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>47</v>
       </c>
@@ -9731,7 +9881,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>48</v>
       </c>
@@ -9751,7 +9901,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>49</v>
       </c>
@@ -9771,7 +9921,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>0</v>
       </c>
@@ -9791,7 +9941,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>1</v>
       </c>
@@ -9811,7 +9961,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>2</v>
       </c>
@@ -9831,7 +9981,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>3</v>
       </c>
@@ -9851,7 +10001,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>4</v>
       </c>
@@ -9871,7 +10021,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>5</v>
       </c>
@@ -9891,7 +10041,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>6</v>
       </c>
@@ -9911,7 +10061,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>7</v>
       </c>
@@ -9931,7 +10081,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>8</v>
       </c>
@@ -9951,7 +10101,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>9</v>
       </c>
@@ -9971,7 +10121,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>10</v>
       </c>
@@ -9991,7 +10141,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>11</v>
       </c>
@@ -10011,7 +10161,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>12</v>
       </c>
@@ -10031,7 +10181,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>13</v>
       </c>
@@ -10051,7 +10201,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>14</v>
       </c>
@@ -10071,7 +10221,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>15</v>
       </c>
@@ -10091,7 +10241,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>16</v>
       </c>
@@ -10111,7 +10261,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>17</v>
       </c>
@@ -10131,7 +10281,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>18</v>
       </c>
@@ -10151,7 +10301,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>19</v>
       </c>
@@ -10171,7 +10321,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>20</v>
       </c>
@@ -10191,7 +10341,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>21</v>
       </c>
@@ -10211,7 +10361,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>22</v>
       </c>
@@ -10231,7 +10381,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>23</v>
       </c>
@@ -10251,7 +10401,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>24</v>
       </c>
@@ -10271,7 +10421,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>25</v>
       </c>
@@ -10291,7 +10441,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>26</v>
       </c>
@@ -10311,7 +10461,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>27</v>
       </c>
@@ -10331,7 +10481,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>28</v>
       </c>
@@ -10351,7 +10501,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>29</v>
       </c>
@@ -10371,7 +10521,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>30</v>
       </c>
@@ -10391,7 +10541,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>31</v>
       </c>
@@ -10411,7 +10561,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>32</v>
       </c>
@@ -10431,7 +10581,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>33</v>
       </c>
@@ -10451,7 +10601,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>34</v>
       </c>
@@ -10471,7 +10621,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>35</v>
       </c>
@@ -10491,7 +10641,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>36</v>
       </c>
@@ -10511,7 +10661,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>37</v>
       </c>
@@ -10531,7 +10681,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>38</v>
       </c>
@@ -10551,7 +10701,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>39</v>
       </c>
@@ -10571,7 +10721,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>40</v>
       </c>
@@ -10591,7 +10741,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>41</v>
       </c>
@@ -10611,7 +10761,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>42</v>
       </c>
@@ -10631,7 +10781,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>43</v>
       </c>
@@ -10651,7 +10801,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>44</v>
       </c>
@@ -10671,7 +10821,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>45</v>
       </c>
@@ -10691,7 +10841,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>0</v>
       </c>
@@ -10711,7 +10861,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>1</v>
       </c>
@@ -10731,7 +10881,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>2</v>
       </c>
@@ -10751,7 +10901,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>3</v>
       </c>
@@ -10771,7 +10921,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>4</v>
       </c>
@@ -10791,7 +10941,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>5</v>
       </c>
@@ -10811,7 +10961,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>6</v>
       </c>
@@ -10831,7 +10981,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>7</v>
       </c>
@@ -10851,7 +11001,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>8</v>
       </c>
@@ -10871,7 +11021,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>9</v>
       </c>
@@ -10891,7 +11041,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>10</v>
       </c>
@@ -10911,7 +11061,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>11</v>
       </c>
@@ -10931,7 +11081,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>12</v>
       </c>
@@ -10951,7 +11101,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>13</v>
       </c>
@@ -10971,7 +11121,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>14</v>
       </c>
@@ -10991,7 +11141,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>15</v>
       </c>
@@ -11011,7 +11161,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>16</v>
       </c>
@@ -11031,7 +11181,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>17</v>
       </c>
@@ -11051,7 +11201,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>18</v>
       </c>
@@ -11071,7 +11221,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>19</v>
       </c>
@@ -11091,7 +11241,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>20</v>
       </c>
@@ -11111,7 +11261,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>21</v>
       </c>
@@ -11131,7 +11281,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>22</v>
       </c>
@@ -11151,7 +11301,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>23</v>
       </c>
@@ -11171,7 +11321,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>24</v>
       </c>
@@ -11191,7 +11341,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>25</v>
       </c>
@@ -11211,7 +11361,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>26</v>
       </c>
@@ -11231,7 +11381,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>27</v>
       </c>
@@ -11251,7 +11401,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>28</v>
       </c>
@@ -11271,7 +11421,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>29</v>
       </c>
@@ -11291,7 +11441,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>30</v>
       </c>
@@ -11311,7 +11461,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>31</v>
       </c>
@@ -11331,7 +11481,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>32</v>
       </c>
@@ -11351,7 +11501,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>33</v>
       </c>
@@ -11371,7 +11521,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>34</v>
       </c>
@@ -11391,7 +11541,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>35</v>
       </c>
@@ -11411,7 +11561,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>36</v>
       </c>
@@ -11431,7 +11581,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>37</v>
       </c>
@@ -11451,7 +11601,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>38</v>
       </c>
@@ -11471,7 +11621,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>39</v>
       </c>
@@ -11491,7 +11641,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>40</v>
       </c>
@@ -11511,7 +11661,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>41</v>
       </c>
@@ -11531,7 +11681,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>42</v>
       </c>
@@ -11551,7 +11701,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>43</v>
       </c>
@@ -11571,7 +11721,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>44</v>
       </c>
@@ -11591,7 +11741,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>0</v>
       </c>
@@ -11611,7 +11761,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>1</v>
       </c>
@@ -11631,7 +11781,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>2</v>
       </c>
@@ -11651,7 +11801,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>3</v>
       </c>
@@ -11671,7 +11821,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>4</v>
       </c>
@@ -11691,7 +11841,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>5</v>
       </c>
@@ -11711,7 +11861,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>6</v>
       </c>
@@ -11731,7 +11881,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>7</v>
       </c>
@@ -11751,7 +11901,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>8</v>
       </c>
@@ -11771,7 +11921,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>9</v>
       </c>
@@ -11791,7 +11941,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>10</v>
       </c>
@@ -11811,7 +11961,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>11</v>
       </c>
@@ -11831,7 +11981,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>12</v>
       </c>
@@ -11851,7 +12001,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>13</v>
       </c>
@@ -11871,7 +12021,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>14</v>
       </c>
@@ -11891,7 +12041,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>15</v>
       </c>
@@ -11911,7 +12061,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>16</v>
       </c>
@@ -11931,7 +12081,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>17</v>
       </c>
@@ -11951,7 +12101,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>18</v>
       </c>
@@ -11971,7 +12121,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>19</v>
       </c>
@@ -11991,7 +12141,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>20</v>
       </c>
@@ -12011,7 +12161,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>21</v>
       </c>
@@ -12031,7 +12181,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>22</v>
       </c>
@@ -12051,7 +12201,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>23</v>
       </c>
@@ -12071,7 +12221,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>24</v>
       </c>
@@ -12091,7 +12241,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>25</v>
       </c>
@@ -12111,7 +12261,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>26</v>
       </c>
@@ -12131,7 +12281,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>27</v>
       </c>
@@ -12151,7 +12301,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>0</v>
       </c>
@@ -12171,7 +12321,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>1</v>
       </c>
@@ -12191,7 +12341,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>2</v>
       </c>
@@ -12211,7 +12361,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>3</v>
       </c>
@@ -12231,7 +12381,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>4</v>
       </c>
@@ -12251,7 +12401,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>5</v>
       </c>
@@ -12271,7 +12421,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>6</v>
       </c>
@@ -12291,7 +12441,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>7</v>
       </c>
@@ -12311,7 +12461,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>8</v>
       </c>
@@ -12331,7 +12481,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>9</v>
       </c>
@@ -12351,7 +12501,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>10</v>
       </c>
@@ -12371,7 +12521,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>11</v>
       </c>
@@ -12391,7 +12541,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>12</v>
       </c>
@@ -12411,7 +12561,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>13</v>
       </c>
@@ -12431,7 +12581,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>14</v>
       </c>
@@ -12451,7 +12601,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>15</v>
       </c>
@@ -12471,7 +12621,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>16</v>
       </c>
@@ -12491,7 +12641,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="584" spans="1:6">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>17</v>
       </c>
@@ -12511,7 +12661,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="585" spans="1:6">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>18</v>
       </c>
@@ -12531,7 +12681,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="586" spans="1:6">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>19</v>
       </c>
@@ -12551,7 +12701,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="587" spans="1:6">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>20</v>
       </c>
@@ -12571,7 +12721,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="588" spans="1:6">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>21</v>
       </c>
@@ -12591,7 +12741,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>22</v>
       </c>
@@ -12611,7 +12761,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>23</v>
       </c>
@@ -12631,7 +12781,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>24</v>
       </c>
@@ -12651,7 +12801,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="592" spans="1:6">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>25</v>
       </c>
@@ -12671,7 +12821,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="593" spans="1:6">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>26</v>
       </c>
@@ -12691,7 +12841,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>27</v>
       </c>
@@ -12711,7 +12861,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="595" spans="1:6">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>28</v>
       </c>
@@ -12731,7 +12881,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>29</v>
       </c>
@@ -12751,7 +12901,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="597" spans="1:6">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>30</v>
       </c>
@@ -12771,7 +12921,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="598" spans="1:6">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>31</v>
       </c>
@@ -12791,7 +12941,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="599" spans="1:6">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>32</v>
       </c>
@@ -12811,7 +12961,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>33</v>
       </c>
@@ -12831,7 +12981,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>34</v>
       </c>
@@ -12851,7 +13001,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="602" spans="1:6">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>35</v>
       </c>
@@ -12871,7 +13021,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>36</v>
       </c>
@@ -12891,7 +13041,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="604" spans="1:6">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>37</v>
       </c>
@@ -12911,7 +13061,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>38</v>
       </c>
@@ -12931,7 +13081,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>39</v>
       </c>
@@ -12951,7 +13101,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="607" spans="1:6">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>40</v>
       </c>
@@ -12971,7 +13121,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>41</v>
       </c>
@@ -12991,7 +13141,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="609" spans="1:6">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>42</v>
       </c>
@@ -13011,7 +13161,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="610" spans="1:6">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>43</v>
       </c>
@@ -13031,7 +13181,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="611" spans="1:6">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>44</v>
       </c>
@@ -13051,7 +13201,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="612" spans="1:6">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>45</v>
       </c>
@@ -13071,7 +13221,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="613" spans="1:6">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>0</v>
       </c>
@@ -13091,7 +13241,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="614" spans="1:6">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>1</v>
       </c>
@@ -13111,7 +13261,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="615" spans="1:6">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>2</v>
       </c>
@@ -13131,7 +13281,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="616" spans="1:6">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>3</v>
       </c>
@@ -13151,7 +13301,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="617" spans="1:6">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>4</v>
       </c>
@@ -13171,7 +13321,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="618" spans="1:6">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>5</v>
       </c>
@@ -13191,7 +13341,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="619" spans="1:6">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>6</v>
       </c>
@@ -13211,7 +13361,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="620" spans="1:6">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>7</v>
       </c>
@@ -13231,7 +13381,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="621" spans="1:6">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>8</v>
       </c>
@@ -13251,7 +13401,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="622" spans="1:6">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>9</v>
       </c>
@@ -13271,7 +13421,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="623" spans="1:6">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>10</v>
       </c>
@@ -13291,7 +13441,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="624" spans="1:6">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>11</v>
       </c>
@@ -13311,7 +13461,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="625" spans="1:6">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>12</v>
       </c>
@@ -13331,7 +13481,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="626" spans="1:6">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>13</v>
       </c>
@@ -13351,7 +13501,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="627" spans="1:6">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>14</v>
       </c>
@@ -13371,7 +13521,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="628" spans="1:6">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>15</v>
       </c>
@@ -13391,7 +13541,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="629" spans="1:6">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>16</v>
       </c>
@@ -13411,7 +13561,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="630" spans="1:6">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>17</v>
       </c>
@@ -13431,7 +13581,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="631" spans="1:6">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>18</v>
       </c>
@@ -13451,7 +13601,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="632" spans="1:6">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>19</v>
       </c>
@@ -13471,7 +13621,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="633" spans="1:6">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>20</v>
       </c>
@@ -13491,7 +13641,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="634" spans="1:6">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>21</v>
       </c>
@@ -13511,7 +13661,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="635" spans="1:6">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>22</v>
       </c>
@@ -13531,7 +13681,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="636" spans="1:6">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>23</v>
       </c>
@@ -13551,7 +13701,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="637" spans="1:6">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>24</v>
       </c>
@@ -13571,7 +13721,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="638" spans="1:6">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>25</v>
       </c>
@@ -13591,7 +13741,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="639" spans="1:6">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>26</v>
       </c>
@@ -13611,7 +13761,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="640" spans="1:6">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>27</v>
       </c>
@@ -13631,7 +13781,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="641" spans="1:6">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>28</v>
       </c>
@@ -13651,7 +13801,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="642" spans="1:6">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>29</v>
       </c>
@@ -13671,7 +13821,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="643" spans="1:6">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>30</v>
       </c>
@@ -13691,7 +13841,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="644" spans="1:6">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>31</v>
       </c>
@@ -13711,7 +13861,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="645" spans="1:6">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>32</v>
       </c>
@@ -13731,7 +13881,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="646" spans="1:6">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>33</v>
       </c>
@@ -13751,7 +13901,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="647" spans="1:6">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>34</v>
       </c>
@@ -13771,7 +13921,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="648" spans="1:6">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>35</v>
       </c>
@@ -13791,7 +13941,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="649" spans="1:6">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>36</v>
       </c>
@@ -13811,7 +13961,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="650" spans="1:6">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>37</v>
       </c>
@@ -13831,7 +13981,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="651" spans="1:6">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>38</v>
       </c>
@@ -13851,7 +14001,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="652" spans="1:6">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>39</v>
       </c>
@@ -13871,7 +14021,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="653" spans="1:6">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>40</v>
       </c>
@@ -13891,7 +14041,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="654" spans="1:6">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>41</v>
       </c>
@@ -13911,7 +14061,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="655" spans="1:6">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>42</v>
       </c>
@@ -13931,7 +14081,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="656" spans="1:6">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>43</v>
       </c>
@@ -13951,7 +14101,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="657" spans="1:6">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>44</v>
       </c>
@@ -13971,7 +14121,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="658" spans="1:6">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>45</v>
       </c>
@@ -13991,7 +14141,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="659" spans="1:6">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>46</v>
       </c>
@@ -14011,7 +14161,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="660" spans="1:6">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>47</v>
       </c>
@@ -14031,7 +14181,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="661" spans="1:6">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>48</v>
       </c>
@@ -14051,7 +14201,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="662" spans="1:6">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>49</v>
       </c>
@@ -14071,7 +14221,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="663" spans="1:6">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>0</v>
       </c>
@@ -14091,7 +14241,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="664" spans="1:6">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>1</v>
       </c>
@@ -14111,7 +14261,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="665" spans="1:6">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>2</v>
       </c>
@@ -14131,7 +14281,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="666" spans="1:6">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>3</v>
       </c>
@@ -14151,7 +14301,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="667" spans="1:6">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>4</v>
       </c>
@@ -14171,7 +14321,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="668" spans="1:6">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>5</v>
       </c>
@@ -14191,7 +14341,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="669" spans="1:6">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>6</v>
       </c>
@@ -14211,7 +14361,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="670" spans="1:6">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>7</v>
       </c>
@@ -14231,7 +14381,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="671" spans="1:6">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>8</v>
       </c>
@@ -14251,7 +14401,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="672" spans="1:6">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>9</v>
       </c>
@@ -14271,7 +14421,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="673" spans="1:6">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>10</v>
       </c>
@@ -14291,7 +14441,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="674" spans="1:6">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>11</v>
       </c>
@@ -14311,7 +14461,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="675" spans="1:6">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>12</v>
       </c>
@@ -14331,7 +14481,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="676" spans="1:6">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>13</v>
       </c>
@@ -14351,7 +14501,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="677" spans="1:6">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>14</v>
       </c>
@@ -14371,7 +14521,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="678" spans="1:6">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>15</v>
       </c>
@@ -14391,7 +14541,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="679" spans="1:6">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>16</v>
       </c>
@@ -14411,7 +14561,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="680" spans="1:6">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>17</v>
       </c>
@@ -14431,7 +14581,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="681" spans="1:6">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>18</v>
       </c>
@@ -14451,7 +14601,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="682" spans="1:6">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>19</v>
       </c>
@@ -14471,7 +14621,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="683" spans="1:6">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>20</v>
       </c>
@@ -14491,7 +14641,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="684" spans="1:6">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>21</v>
       </c>
@@ -14511,7 +14661,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="685" spans="1:6">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>22</v>
       </c>
@@ -14531,7 +14681,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="686" spans="1:6">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>23</v>
       </c>
@@ -14551,7 +14701,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="687" spans="1:6">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>24</v>
       </c>
@@ -14571,7 +14721,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="688" spans="1:6">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>25</v>
       </c>
@@ -14591,7 +14741,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="689" spans="1:6">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>26</v>
       </c>
@@ -14611,7 +14761,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="690" spans="1:6">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>27</v>
       </c>
@@ -14631,7 +14781,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="691" spans="1:6">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>28</v>
       </c>
@@ -14651,7 +14801,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="692" spans="1:6">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>29</v>
       </c>
@@ -14671,7 +14821,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="693" spans="1:6">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>30</v>
       </c>
@@ -14691,7 +14841,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="694" spans="1:6">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>31</v>
       </c>
@@ -14711,7 +14861,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="695" spans="1:6">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>32</v>
       </c>
@@ -14731,7 +14881,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="696" spans="1:6">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>33</v>
       </c>
@@ -14751,7 +14901,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="697" spans="1:6">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>34</v>
       </c>
@@ -14771,7 +14921,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="698" spans="1:6">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>35</v>
       </c>
@@ -14791,7 +14941,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="699" spans="1:6">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>36</v>
       </c>
@@ -14811,7 +14961,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="700" spans="1:6">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>37</v>
       </c>
@@ -14831,7 +14981,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="701" spans="1:6">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>38</v>
       </c>
@@ -14851,7 +15001,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="702" spans="1:6">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>39</v>
       </c>
@@ -14871,7 +15021,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="703" spans="1:6">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>40</v>
       </c>
@@ -14891,7 +15041,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="704" spans="1:6">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>41</v>
       </c>
@@ -14911,7 +15061,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="705" spans="1:6">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>42</v>
       </c>
@@ -14931,7 +15081,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="706" spans="1:6">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>43</v>
       </c>
@@ -14951,7 +15101,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="707" spans="1:6">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>44</v>
       </c>
@@ -14971,7 +15121,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="708" spans="1:6">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>45</v>
       </c>
@@ -14991,7 +15141,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="709" spans="1:6">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>46</v>
       </c>
@@ -15011,7 +15161,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="710" spans="1:6">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>47</v>
       </c>
@@ -15031,7 +15181,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="711" spans="1:6">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>48</v>
       </c>
@@ -15051,7 +15201,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="712" spans="1:6">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>0</v>
       </c>
@@ -15071,7 +15221,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="713" spans="1:6">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>1</v>
       </c>
@@ -15091,7 +15241,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="714" spans="1:6">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>2</v>
       </c>
@@ -15111,7 +15261,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="715" spans="1:6">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>3</v>
       </c>
@@ -15131,7 +15281,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="716" spans="1:6">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>4</v>
       </c>
@@ -15151,7 +15301,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="717" spans="1:6">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>5</v>
       </c>
@@ -15171,7 +15321,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="718" spans="1:6">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>6</v>
       </c>
@@ -15191,7 +15341,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="719" spans="1:6">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>7</v>
       </c>
@@ -15211,7 +15361,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="720" spans="1:6">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>8</v>
       </c>
@@ -15231,7 +15381,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="721" spans="1:6">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>9</v>
       </c>
@@ -15251,7 +15401,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="722" spans="1:6">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>10</v>
       </c>
@@ -15271,7 +15421,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="723" spans="1:6">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>11</v>
       </c>
@@ -15291,7 +15441,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="724" spans="1:6">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>12</v>
       </c>
@@ -15311,7 +15461,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="725" spans="1:6">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>13</v>
       </c>
@@ -15331,7 +15481,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="726" spans="1:6">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>14</v>
       </c>
@@ -15351,7 +15501,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="727" spans="1:6">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>15</v>
       </c>
@@ -15371,7 +15521,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="728" spans="1:6">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>16</v>
       </c>
@@ -15391,7 +15541,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="729" spans="1:6">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>17</v>
       </c>
@@ -15411,7 +15561,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="730" spans="1:6">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>18</v>
       </c>
@@ -15431,7 +15581,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="731" spans="1:6">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>19</v>
       </c>
@@ -15451,7 +15601,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="732" spans="1:6">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>20</v>
       </c>
@@ -15471,7 +15621,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="733" spans="1:6">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>21</v>
       </c>
@@ -15491,7 +15641,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="734" spans="1:6">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>22</v>
       </c>
@@ -15511,7 +15661,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="735" spans="1:6">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>23</v>
       </c>
@@ -15531,7 +15681,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="736" spans="1:6">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>24</v>
       </c>
@@ -15551,7 +15701,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="737" spans="1:6">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>25</v>
       </c>
@@ -15571,7 +15721,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="738" spans="1:6">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>26</v>
       </c>
@@ -15591,7 +15741,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="739" spans="1:6">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>27</v>
       </c>
@@ -15611,7 +15761,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="740" spans="1:6">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>28</v>
       </c>
@@ -15631,7 +15781,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="741" spans="1:6">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>29</v>
       </c>
@@ -15651,7 +15801,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="742" spans="1:6">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>30</v>
       </c>
@@ -15671,7 +15821,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="743" spans="1:6">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>31</v>
       </c>
@@ -15691,7 +15841,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="744" spans="1:6">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>32</v>
       </c>
@@ -15711,7 +15861,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="745" spans="1:6">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>33</v>
       </c>
@@ -15731,7 +15881,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="746" spans="1:6">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>34</v>
       </c>
@@ -15751,7 +15901,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="747" spans="1:6">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>35</v>
       </c>
@@ -15771,7 +15921,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="748" spans="1:6">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>36</v>
       </c>
@@ -15791,7 +15941,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="749" spans="1:6">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>37</v>
       </c>
@@ -15811,7 +15961,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="750" spans="1:6">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>38</v>
       </c>
@@ -15831,7 +15981,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="751" spans="1:6">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>39</v>
       </c>
@@ -15851,7 +16001,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="752" spans="1:6">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>40</v>
       </c>
@@ -15871,7 +16021,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="753" spans="1:6">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>41</v>
       </c>
@@ -15891,7 +16041,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="754" spans="1:6">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>42</v>
       </c>
@@ -15911,7 +16061,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="755" spans="1:6">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>43</v>
       </c>
@@ -15931,7 +16081,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="756" spans="1:6">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>44</v>
       </c>
@@ -15951,7 +16101,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="757" spans="1:6">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>45</v>
       </c>
@@ -15971,7 +16121,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="758" spans="1:6">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>46</v>
       </c>
@@ -15991,7 +16141,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="759" spans="1:6">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>47</v>
       </c>
@@ -16011,7 +16161,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="760" spans="1:6">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>48</v>
       </c>
@@ -16033,766 +16183,769 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E19" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
-    <hyperlink ref="E22" r:id="rId21"/>
-    <hyperlink ref="E23" r:id="rId22"/>
-    <hyperlink ref="E24" r:id="rId23"/>
-    <hyperlink ref="E25" r:id="rId24"/>
-    <hyperlink ref="E26" r:id="rId25"/>
-    <hyperlink ref="E27" r:id="rId26"/>
-    <hyperlink ref="E28" r:id="rId27"/>
-    <hyperlink ref="E29" r:id="rId28"/>
-    <hyperlink ref="E30" r:id="rId29"/>
-    <hyperlink ref="E31" r:id="rId30"/>
-    <hyperlink ref="E32" r:id="rId31"/>
-    <hyperlink ref="E33" r:id="rId32"/>
-    <hyperlink ref="E34" r:id="rId33"/>
-    <hyperlink ref="E35" r:id="rId34"/>
-    <hyperlink ref="E36" r:id="rId35"/>
-    <hyperlink ref="E37" r:id="rId36"/>
-    <hyperlink ref="E38" r:id="rId37"/>
-    <hyperlink ref="E39" r:id="rId38"/>
-    <hyperlink ref="E40" r:id="rId39"/>
-    <hyperlink ref="E41" r:id="rId40"/>
-    <hyperlink ref="E42" r:id="rId41"/>
-    <hyperlink ref="E43" r:id="rId42"/>
-    <hyperlink ref="E44" r:id="rId43"/>
-    <hyperlink ref="E45" r:id="rId44"/>
-    <hyperlink ref="E46" r:id="rId45"/>
-    <hyperlink ref="E47" r:id="rId46"/>
-    <hyperlink ref="E48" r:id="rId47"/>
-    <hyperlink ref="E49" r:id="rId48"/>
-    <hyperlink ref="E50" r:id="rId49"/>
-    <hyperlink ref="E51" r:id="rId50"/>
-    <hyperlink ref="E52" r:id="rId51"/>
-    <hyperlink ref="E53" r:id="rId52"/>
-    <hyperlink ref="E54" r:id="rId53"/>
-    <hyperlink ref="E55" r:id="rId54"/>
-    <hyperlink ref="E56" r:id="rId55"/>
-    <hyperlink ref="E57" r:id="rId56"/>
-    <hyperlink ref="E58" r:id="rId57"/>
-    <hyperlink ref="E59" r:id="rId58"/>
-    <hyperlink ref="E60" r:id="rId59"/>
-    <hyperlink ref="E61" r:id="rId60"/>
-    <hyperlink ref="E62" r:id="rId61"/>
-    <hyperlink ref="E63" r:id="rId62"/>
-    <hyperlink ref="E64" r:id="rId63"/>
-    <hyperlink ref="E65" r:id="rId64"/>
-    <hyperlink ref="E66" r:id="rId65"/>
-    <hyperlink ref="E67" r:id="rId66"/>
-    <hyperlink ref="E68" r:id="rId67"/>
-    <hyperlink ref="E69" r:id="rId68"/>
-    <hyperlink ref="E70" r:id="rId69"/>
-    <hyperlink ref="E71" r:id="rId70"/>
-    <hyperlink ref="E72" r:id="rId71"/>
-    <hyperlink ref="E73" r:id="rId72"/>
-    <hyperlink ref="E74" r:id="rId73"/>
-    <hyperlink ref="E75" r:id="rId74"/>
-    <hyperlink ref="E76" r:id="rId75"/>
-    <hyperlink ref="E77" r:id="rId76"/>
-    <hyperlink ref="E78" r:id="rId77"/>
-    <hyperlink ref="E79" r:id="rId78"/>
-    <hyperlink ref="E80" r:id="rId79"/>
-    <hyperlink ref="E81" r:id="rId80"/>
-    <hyperlink ref="E82" r:id="rId81"/>
-    <hyperlink ref="E83" r:id="rId82"/>
-    <hyperlink ref="E84" r:id="rId83"/>
-    <hyperlink ref="E85" r:id="rId84"/>
-    <hyperlink ref="E86" r:id="rId85"/>
-    <hyperlink ref="E87" r:id="rId86"/>
-    <hyperlink ref="E88" r:id="rId87"/>
-    <hyperlink ref="E89" r:id="rId88"/>
-    <hyperlink ref="E90" r:id="rId89"/>
-    <hyperlink ref="E91" r:id="rId90"/>
-    <hyperlink ref="E92" r:id="rId91"/>
-    <hyperlink ref="E93" r:id="rId92"/>
-    <hyperlink ref="E94" r:id="rId93"/>
-    <hyperlink ref="E95" r:id="rId94"/>
-    <hyperlink ref="E96" r:id="rId95"/>
-    <hyperlink ref="E97" r:id="rId96"/>
-    <hyperlink ref="E98" r:id="rId97"/>
-    <hyperlink ref="E99" r:id="rId98"/>
-    <hyperlink ref="E100" r:id="rId99"/>
-    <hyperlink ref="E101" r:id="rId100"/>
-    <hyperlink ref="E102" r:id="rId101"/>
-    <hyperlink ref="E103" r:id="rId102"/>
-    <hyperlink ref="E104" r:id="rId103"/>
-    <hyperlink ref="E105" r:id="rId104"/>
-    <hyperlink ref="E106" r:id="rId105"/>
-    <hyperlink ref="E107" r:id="rId106"/>
-    <hyperlink ref="E108" r:id="rId107"/>
-    <hyperlink ref="E109" r:id="rId108"/>
-    <hyperlink ref="E110" r:id="rId109"/>
-    <hyperlink ref="E111" r:id="rId110"/>
-    <hyperlink ref="E112" r:id="rId111"/>
-    <hyperlink ref="E113" r:id="rId112"/>
-    <hyperlink ref="E114" r:id="rId113"/>
-    <hyperlink ref="E115" r:id="rId114"/>
-    <hyperlink ref="E116" r:id="rId115"/>
-    <hyperlink ref="E117" r:id="rId116"/>
-    <hyperlink ref="E118" r:id="rId117"/>
-    <hyperlink ref="E119" r:id="rId118"/>
-    <hyperlink ref="E120" r:id="rId119"/>
-    <hyperlink ref="E121" r:id="rId120"/>
-    <hyperlink ref="E122" r:id="rId121"/>
-    <hyperlink ref="E123" r:id="rId122"/>
-    <hyperlink ref="E124" r:id="rId123"/>
-    <hyperlink ref="E125" r:id="rId124"/>
-    <hyperlink ref="E126" r:id="rId125"/>
-    <hyperlink ref="E127" r:id="rId126"/>
-    <hyperlink ref="E128" r:id="rId127"/>
-    <hyperlink ref="E129" r:id="rId128"/>
-    <hyperlink ref="E130" r:id="rId129"/>
-    <hyperlink ref="E131" r:id="rId130"/>
-    <hyperlink ref="E132" r:id="rId131"/>
-    <hyperlink ref="E133" r:id="rId132"/>
-    <hyperlink ref="E134" r:id="rId133"/>
-    <hyperlink ref="E135" r:id="rId134"/>
-    <hyperlink ref="E136" r:id="rId135"/>
-    <hyperlink ref="E137" r:id="rId136"/>
-    <hyperlink ref="E138" r:id="rId137"/>
-    <hyperlink ref="E139" r:id="rId138"/>
-    <hyperlink ref="E140" r:id="rId139"/>
-    <hyperlink ref="E141" r:id="rId140"/>
-    <hyperlink ref="E142" r:id="rId141"/>
-    <hyperlink ref="E143" r:id="rId142"/>
-    <hyperlink ref="E144" r:id="rId143"/>
-    <hyperlink ref="E145" r:id="rId144"/>
-    <hyperlink ref="E146" r:id="rId145"/>
-    <hyperlink ref="E147" r:id="rId146"/>
-    <hyperlink ref="E148" r:id="rId147"/>
-    <hyperlink ref="E149" r:id="rId148"/>
-    <hyperlink ref="E150" r:id="rId149"/>
-    <hyperlink ref="E151" r:id="rId150"/>
-    <hyperlink ref="E152" r:id="rId151"/>
-    <hyperlink ref="E153" r:id="rId152"/>
-    <hyperlink ref="E154" r:id="rId153"/>
-    <hyperlink ref="E155" r:id="rId154"/>
-    <hyperlink ref="E156" r:id="rId155"/>
-    <hyperlink ref="E157" r:id="rId156"/>
-    <hyperlink ref="E158" r:id="rId157"/>
-    <hyperlink ref="E159" r:id="rId158"/>
-    <hyperlink ref="E160" r:id="rId159"/>
-    <hyperlink ref="E161" r:id="rId160"/>
-    <hyperlink ref="E162" r:id="rId161"/>
-    <hyperlink ref="E163" r:id="rId162"/>
-    <hyperlink ref="E164" r:id="rId163"/>
-    <hyperlink ref="E165" r:id="rId164"/>
-    <hyperlink ref="E166" r:id="rId165"/>
-    <hyperlink ref="E167" r:id="rId166"/>
-    <hyperlink ref="E168" r:id="rId167"/>
-    <hyperlink ref="E169" r:id="rId168"/>
-    <hyperlink ref="E170" r:id="rId169"/>
-    <hyperlink ref="E171" r:id="rId170"/>
-    <hyperlink ref="E172" r:id="rId171"/>
-    <hyperlink ref="E173" r:id="rId172"/>
-    <hyperlink ref="E174" r:id="rId173"/>
-    <hyperlink ref="E175" r:id="rId174"/>
-    <hyperlink ref="E176" r:id="rId175"/>
-    <hyperlink ref="E177" r:id="rId176"/>
-    <hyperlink ref="E178" r:id="rId177"/>
-    <hyperlink ref="E179" r:id="rId178"/>
-    <hyperlink ref="E180" r:id="rId179"/>
-    <hyperlink ref="E181" r:id="rId180"/>
-    <hyperlink ref="E182" r:id="rId181"/>
-    <hyperlink ref="E183" r:id="rId182"/>
-    <hyperlink ref="E184" r:id="rId183"/>
-    <hyperlink ref="E185" r:id="rId184"/>
-    <hyperlink ref="E186" r:id="rId185"/>
-    <hyperlink ref="E187" r:id="rId186"/>
-    <hyperlink ref="E188" r:id="rId187"/>
-    <hyperlink ref="E189" r:id="rId188"/>
-    <hyperlink ref="E190" r:id="rId189"/>
-    <hyperlink ref="E191" r:id="rId190"/>
-    <hyperlink ref="E192" r:id="rId191"/>
-    <hyperlink ref="E193" r:id="rId192"/>
-    <hyperlink ref="E194" r:id="rId193"/>
-    <hyperlink ref="E195" r:id="rId194"/>
-    <hyperlink ref="E196" r:id="rId195"/>
-    <hyperlink ref="E197" r:id="rId196"/>
-    <hyperlink ref="E198" r:id="rId197"/>
-    <hyperlink ref="E199" r:id="rId198"/>
-    <hyperlink ref="E200" r:id="rId199"/>
-    <hyperlink ref="E201" r:id="rId200"/>
-    <hyperlink ref="E202" r:id="rId201"/>
-    <hyperlink ref="E203" r:id="rId202"/>
-    <hyperlink ref="E204" r:id="rId203"/>
-    <hyperlink ref="E205" r:id="rId204"/>
-    <hyperlink ref="E206" r:id="rId205"/>
-    <hyperlink ref="E207" r:id="rId206"/>
-    <hyperlink ref="E208" r:id="rId207"/>
-    <hyperlink ref="E209" r:id="rId208"/>
-    <hyperlink ref="E210" r:id="rId209"/>
-    <hyperlink ref="E211" r:id="rId210"/>
-    <hyperlink ref="E212" r:id="rId211"/>
-    <hyperlink ref="E213" r:id="rId212"/>
-    <hyperlink ref="E214" r:id="rId213"/>
-    <hyperlink ref="E215" r:id="rId214"/>
-    <hyperlink ref="E216" r:id="rId215"/>
-    <hyperlink ref="E217" r:id="rId216"/>
-    <hyperlink ref="E218" r:id="rId217"/>
-    <hyperlink ref="E219" r:id="rId218"/>
-    <hyperlink ref="E220" r:id="rId219"/>
-    <hyperlink ref="E221" r:id="rId220"/>
-    <hyperlink ref="E222" r:id="rId221"/>
-    <hyperlink ref="E223" r:id="rId222"/>
-    <hyperlink ref="E224" r:id="rId223"/>
-    <hyperlink ref="E225" r:id="rId224"/>
-    <hyperlink ref="E226" r:id="rId225"/>
-    <hyperlink ref="E227" r:id="rId226"/>
-    <hyperlink ref="E228" r:id="rId227"/>
-    <hyperlink ref="E229" r:id="rId228"/>
-    <hyperlink ref="E230" r:id="rId229"/>
-    <hyperlink ref="E231" r:id="rId230"/>
-    <hyperlink ref="E232" r:id="rId231"/>
-    <hyperlink ref="E233" r:id="rId232"/>
-    <hyperlink ref="E234" r:id="rId233"/>
-    <hyperlink ref="E235" r:id="rId234"/>
-    <hyperlink ref="E236" r:id="rId235"/>
-    <hyperlink ref="E237" r:id="rId236"/>
-    <hyperlink ref="E238" r:id="rId237"/>
-    <hyperlink ref="E239" r:id="rId238"/>
-    <hyperlink ref="E240" r:id="rId239"/>
-    <hyperlink ref="E241" r:id="rId240"/>
-    <hyperlink ref="E242" r:id="rId241"/>
-    <hyperlink ref="E243" r:id="rId242"/>
-    <hyperlink ref="E244" r:id="rId243"/>
-    <hyperlink ref="E245" r:id="rId244"/>
-    <hyperlink ref="E246" r:id="rId245"/>
-    <hyperlink ref="E247" r:id="rId246"/>
-    <hyperlink ref="E248" r:id="rId247"/>
-    <hyperlink ref="E249" r:id="rId248"/>
-    <hyperlink ref="E250" r:id="rId249"/>
-    <hyperlink ref="E251" r:id="rId250"/>
-    <hyperlink ref="E252" r:id="rId251"/>
-    <hyperlink ref="E253" r:id="rId252"/>
-    <hyperlink ref="E254" r:id="rId253"/>
-    <hyperlink ref="E255" r:id="rId254"/>
-    <hyperlink ref="E256" r:id="rId255"/>
-    <hyperlink ref="E257" r:id="rId256"/>
-    <hyperlink ref="E258" r:id="rId257"/>
-    <hyperlink ref="E259" r:id="rId258"/>
-    <hyperlink ref="E260" r:id="rId259"/>
-    <hyperlink ref="E261" r:id="rId260"/>
-    <hyperlink ref="E262" r:id="rId261"/>
-    <hyperlink ref="E263" r:id="rId262"/>
-    <hyperlink ref="E264" r:id="rId263"/>
-    <hyperlink ref="E265" r:id="rId264"/>
-    <hyperlink ref="E266" r:id="rId265"/>
-    <hyperlink ref="E267" r:id="rId266"/>
-    <hyperlink ref="E268" r:id="rId267"/>
-    <hyperlink ref="E269" r:id="rId268"/>
-    <hyperlink ref="E270" r:id="rId269"/>
-    <hyperlink ref="E271" r:id="rId270"/>
-    <hyperlink ref="E272" r:id="rId271"/>
-    <hyperlink ref="E273" r:id="rId272"/>
-    <hyperlink ref="E274" r:id="rId273"/>
-    <hyperlink ref="E275" r:id="rId274"/>
-    <hyperlink ref="E276" r:id="rId275"/>
-    <hyperlink ref="E277" r:id="rId276"/>
-    <hyperlink ref="E278" r:id="rId277"/>
-    <hyperlink ref="E279" r:id="rId278"/>
-    <hyperlink ref="E280" r:id="rId279"/>
-    <hyperlink ref="E281" r:id="rId280"/>
-    <hyperlink ref="E282" r:id="rId281"/>
-    <hyperlink ref="E283" r:id="rId282"/>
-    <hyperlink ref="E284" r:id="rId283"/>
-    <hyperlink ref="E285" r:id="rId284"/>
-    <hyperlink ref="E286" r:id="rId285"/>
-    <hyperlink ref="E287" r:id="rId286"/>
-    <hyperlink ref="E288" r:id="rId287"/>
-    <hyperlink ref="E289" r:id="rId288"/>
-    <hyperlink ref="E290" r:id="rId289"/>
-    <hyperlink ref="E291" r:id="rId290"/>
-    <hyperlink ref="E292" r:id="rId291"/>
-    <hyperlink ref="E293" r:id="rId292"/>
-    <hyperlink ref="E294" r:id="rId293"/>
-    <hyperlink ref="E295" r:id="rId294"/>
-    <hyperlink ref="E296" r:id="rId295"/>
-    <hyperlink ref="E297" r:id="rId296"/>
-    <hyperlink ref="E298" r:id="rId297"/>
-    <hyperlink ref="E299" r:id="rId298"/>
-    <hyperlink ref="E300" r:id="rId299"/>
-    <hyperlink ref="E301" r:id="rId300"/>
-    <hyperlink ref="E302" r:id="rId301"/>
-    <hyperlink ref="E303" r:id="rId302"/>
-    <hyperlink ref="E304" r:id="rId303"/>
-    <hyperlink ref="E305" r:id="rId304"/>
-    <hyperlink ref="E306" r:id="rId305"/>
-    <hyperlink ref="E307" r:id="rId306"/>
-    <hyperlink ref="E308" r:id="rId307"/>
-    <hyperlink ref="E309" r:id="rId308"/>
-    <hyperlink ref="E310" r:id="rId309"/>
-    <hyperlink ref="E311" r:id="rId310"/>
-    <hyperlink ref="E312" r:id="rId311"/>
-    <hyperlink ref="E313" r:id="rId312"/>
-    <hyperlink ref="E314" r:id="rId313"/>
-    <hyperlink ref="E315" r:id="rId314"/>
-    <hyperlink ref="E316" r:id="rId315"/>
-    <hyperlink ref="E317" r:id="rId316"/>
-    <hyperlink ref="E318" r:id="rId317"/>
-    <hyperlink ref="E319" r:id="rId318"/>
-    <hyperlink ref="E320" r:id="rId319"/>
-    <hyperlink ref="E321" r:id="rId320"/>
-    <hyperlink ref="E322" r:id="rId321"/>
-    <hyperlink ref="E323" r:id="rId322"/>
-    <hyperlink ref="E324" r:id="rId323"/>
-    <hyperlink ref="E325" r:id="rId324"/>
-    <hyperlink ref="E326" r:id="rId325"/>
-    <hyperlink ref="E327" r:id="rId326"/>
-    <hyperlink ref="E328" r:id="rId327"/>
-    <hyperlink ref="E329" r:id="rId328"/>
-    <hyperlink ref="E330" r:id="rId329"/>
-    <hyperlink ref="E331" r:id="rId330"/>
-    <hyperlink ref="E332" r:id="rId331"/>
-    <hyperlink ref="E333" r:id="rId332"/>
-    <hyperlink ref="E334" r:id="rId333"/>
-    <hyperlink ref="E335" r:id="rId334"/>
-    <hyperlink ref="E336" r:id="rId335"/>
-    <hyperlink ref="E337" r:id="rId336"/>
-    <hyperlink ref="E338" r:id="rId337"/>
-    <hyperlink ref="E339" r:id="rId338"/>
-    <hyperlink ref="E340" r:id="rId339"/>
-    <hyperlink ref="E341" r:id="rId340"/>
-    <hyperlink ref="E342" r:id="rId341"/>
-    <hyperlink ref="E343" r:id="rId342"/>
-    <hyperlink ref="E344" r:id="rId343"/>
-    <hyperlink ref="E345" r:id="rId344"/>
-    <hyperlink ref="E346" r:id="rId345"/>
-    <hyperlink ref="E347" r:id="rId346"/>
-    <hyperlink ref="E348" r:id="rId347"/>
-    <hyperlink ref="E349" r:id="rId348"/>
-    <hyperlink ref="E350" r:id="rId349"/>
-    <hyperlink ref="E351" r:id="rId350"/>
-    <hyperlink ref="E352" r:id="rId351"/>
-    <hyperlink ref="E353" r:id="rId352"/>
-    <hyperlink ref="E354" r:id="rId353"/>
-    <hyperlink ref="E355" r:id="rId354"/>
-    <hyperlink ref="E356" r:id="rId355"/>
-    <hyperlink ref="E357" r:id="rId356"/>
-    <hyperlink ref="E358" r:id="rId357"/>
-    <hyperlink ref="E359" r:id="rId358"/>
-    <hyperlink ref="E360" r:id="rId359"/>
-    <hyperlink ref="E361" r:id="rId360"/>
-    <hyperlink ref="E362" r:id="rId361"/>
-    <hyperlink ref="E363" r:id="rId362"/>
-    <hyperlink ref="E364" r:id="rId363"/>
-    <hyperlink ref="E365" r:id="rId364"/>
-    <hyperlink ref="E366" r:id="rId365"/>
-    <hyperlink ref="E367" r:id="rId366"/>
-    <hyperlink ref="E368" r:id="rId367"/>
-    <hyperlink ref="E369" r:id="rId368"/>
-    <hyperlink ref="E370" r:id="rId369"/>
-    <hyperlink ref="E371" r:id="rId370"/>
-    <hyperlink ref="E372" r:id="rId371"/>
-    <hyperlink ref="E373" r:id="rId372"/>
-    <hyperlink ref="E374" r:id="rId373"/>
-    <hyperlink ref="E375" r:id="rId374"/>
-    <hyperlink ref="E376" r:id="rId375"/>
-    <hyperlink ref="E377" r:id="rId376"/>
-    <hyperlink ref="E378" r:id="rId377"/>
-    <hyperlink ref="E379" r:id="rId378"/>
-    <hyperlink ref="E380" r:id="rId379"/>
-    <hyperlink ref="E381" r:id="rId380"/>
-    <hyperlink ref="E382" r:id="rId381"/>
-    <hyperlink ref="E383" r:id="rId382"/>
-    <hyperlink ref="E384" r:id="rId383"/>
-    <hyperlink ref="E385" r:id="rId384"/>
-    <hyperlink ref="E386" r:id="rId385"/>
-    <hyperlink ref="E387" r:id="rId386"/>
-    <hyperlink ref="E388" r:id="rId387"/>
-    <hyperlink ref="E389" r:id="rId388"/>
-    <hyperlink ref="E390" r:id="rId389"/>
-    <hyperlink ref="E391" r:id="rId390"/>
-    <hyperlink ref="E392" r:id="rId391"/>
-    <hyperlink ref="E393" r:id="rId392"/>
-    <hyperlink ref="E394" r:id="rId393"/>
-    <hyperlink ref="E395" r:id="rId394"/>
-    <hyperlink ref="E396" r:id="rId395"/>
-    <hyperlink ref="E397" r:id="rId396"/>
-    <hyperlink ref="E398" r:id="rId397"/>
-    <hyperlink ref="E399" r:id="rId398"/>
-    <hyperlink ref="E400" r:id="rId399"/>
-    <hyperlink ref="E401" r:id="rId400"/>
-    <hyperlink ref="E402" r:id="rId401"/>
-    <hyperlink ref="E403" r:id="rId402"/>
-    <hyperlink ref="E404" r:id="rId403"/>
-    <hyperlink ref="E405" r:id="rId404"/>
-    <hyperlink ref="E406" r:id="rId405"/>
-    <hyperlink ref="E407" r:id="rId406"/>
-    <hyperlink ref="E408" r:id="rId407"/>
-    <hyperlink ref="E409" r:id="rId408"/>
-    <hyperlink ref="E410" r:id="rId409"/>
-    <hyperlink ref="E411" r:id="rId410"/>
-    <hyperlink ref="E412" r:id="rId411"/>
-    <hyperlink ref="E413" r:id="rId412"/>
-    <hyperlink ref="E414" r:id="rId413"/>
-    <hyperlink ref="E415" r:id="rId414"/>
-    <hyperlink ref="E416" r:id="rId415"/>
-    <hyperlink ref="E417" r:id="rId416"/>
-    <hyperlink ref="E418" r:id="rId417"/>
-    <hyperlink ref="E419" r:id="rId418"/>
-    <hyperlink ref="E420" r:id="rId419"/>
-    <hyperlink ref="E421" r:id="rId420"/>
-    <hyperlink ref="E422" r:id="rId421"/>
-    <hyperlink ref="E423" r:id="rId422"/>
-    <hyperlink ref="E424" r:id="rId423"/>
-    <hyperlink ref="E425" r:id="rId424"/>
-    <hyperlink ref="E426" r:id="rId425"/>
-    <hyperlink ref="E427" r:id="rId426"/>
-    <hyperlink ref="E428" r:id="rId427"/>
-    <hyperlink ref="E429" r:id="rId428"/>
-    <hyperlink ref="E430" r:id="rId429"/>
-    <hyperlink ref="E431" r:id="rId430"/>
-    <hyperlink ref="E432" r:id="rId431"/>
-    <hyperlink ref="E433" r:id="rId432"/>
-    <hyperlink ref="E434" r:id="rId433"/>
-    <hyperlink ref="E435" r:id="rId434"/>
-    <hyperlink ref="E436" r:id="rId435"/>
-    <hyperlink ref="E437" r:id="rId436"/>
-    <hyperlink ref="E438" r:id="rId437"/>
-    <hyperlink ref="E439" r:id="rId438"/>
-    <hyperlink ref="E440" r:id="rId439"/>
-    <hyperlink ref="E441" r:id="rId440"/>
-    <hyperlink ref="E442" r:id="rId441"/>
-    <hyperlink ref="E443" r:id="rId442"/>
-    <hyperlink ref="E444" r:id="rId443"/>
-    <hyperlink ref="E445" r:id="rId444"/>
-    <hyperlink ref="E446" r:id="rId445"/>
-    <hyperlink ref="E447" r:id="rId446"/>
-    <hyperlink ref="E448" r:id="rId447"/>
-    <hyperlink ref="E449" r:id="rId448"/>
-    <hyperlink ref="E450" r:id="rId449"/>
-    <hyperlink ref="E451" r:id="rId450"/>
-    <hyperlink ref="E452" r:id="rId451"/>
-    <hyperlink ref="E453" r:id="rId452"/>
-    <hyperlink ref="E454" r:id="rId453"/>
-    <hyperlink ref="E455" r:id="rId454"/>
-    <hyperlink ref="E456" r:id="rId455"/>
-    <hyperlink ref="E457" r:id="rId456"/>
-    <hyperlink ref="E458" r:id="rId457"/>
-    <hyperlink ref="E459" r:id="rId458"/>
-    <hyperlink ref="E460" r:id="rId459"/>
-    <hyperlink ref="E461" r:id="rId460"/>
-    <hyperlink ref="E462" r:id="rId461"/>
-    <hyperlink ref="E463" r:id="rId462"/>
-    <hyperlink ref="E464" r:id="rId463"/>
-    <hyperlink ref="E465" r:id="rId464"/>
-    <hyperlink ref="E466" r:id="rId465"/>
-    <hyperlink ref="E467" r:id="rId466"/>
-    <hyperlink ref="E468" r:id="rId467"/>
-    <hyperlink ref="E469" r:id="rId468"/>
-    <hyperlink ref="E470" r:id="rId469"/>
-    <hyperlink ref="E471" r:id="rId470"/>
-    <hyperlink ref="E472" r:id="rId471"/>
-    <hyperlink ref="E473" r:id="rId472"/>
-    <hyperlink ref="E474" r:id="rId473"/>
-    <hyperlink ref="E475" r:id="rId474"/>
-    <hyperlink ref="E476" r:id="rId475"/>
-    <hyperlink ref="E477" r:id="rId476"/>
-    <hyperlink ref="E478" r:id="rId477"/>
-    <hyperlink ref="E479" r:id="rId478"/>
-    <hyperlink ref="E480" r:id="rId479"/>
-    <hyperlink ref="E481" r:id="rId480"/>
-    <hyperlink ref="E482" r:id="rId481"/>
-    <hyperlink ref="E483" r:id="rId482"/>
-    <hyperlink ref="E484" r:id="rId483"/>
-    <hyperlink ref="E485" r:id="rId484"/>
-    <hyperlink ref="E486" r:id="rId485"/>
-    <hyperlink ref="E487" r:id="rId486"/>
-    <hyperlink ref="E488" r:id="rId487"/>
-    <hyperlink ref="E489" r:id="rId488"/>
-    <hyperlink ref="E490" r:id="rId489"/>
-    <hyperlink ref="E491" r:id="rId490"/>
-    <hyperlink ref="E492" r:id="rId491"/>
-    <hyperlink ref="E493" r:id="rId492"/>
-    <hyperlink ref="E494" r:id="rId493"/>
-    <hyperlink ref="E495" r:id="rId494"/>
-    <hyperlink ref="E496" r:id="rId495"/>
-    <hyperlink ref="E497" r:id="rId496"/>
-    <hyperlink ref="E498" r:id="rId497"/>
-    <hyperlink ref="E499" r:id="rId498"/>
-    <hyperlink ref="E500" r:id="rId499"/>
-    <hyperlink ref="E501" r:id="rId500"/>
-    <hyperlink ref="E502" r:id="rId501"/>
-    <hyperlink ref="E503" r:id="rId502"/>
-    <hyperlink ref="E504" r:id="rId503"/>
-    <hyperlink ref="E505" r:id="rId504"/>
-    <hyperlink ref="E506" r:id="rId505"/>
-    <hyperlink ref="E507" r:id="rId506"/>
-    <hyperlink ref="E508" r:id="rId507"/>
-    <hyperlink ref="E509" r:id="rId508"/>
-    <hyperlink ref="E510" r:id="rId509"/>
-    <hyperlink ref="E511" r:id="rId510"/>
-    <hyperlink ref="E512" r:id="rId511"/>
-    <hyperlink ref="E513" r:id="rId512"/>
-    <hyperlink ref="E514" r:id="rId513"/>
-    <hyperlink ref="E515" r:id="rId514"/>
-    <hyperlink ref="E516" r:id="rId515"/>
-    <hyperlink ref="E517" r:id="rId516"/>
-    <hyperlink ref="E518" r:id="rId517"/>
-    <hyperlink ref="E519" r:id="rId518"/>
-    <hyperlink ref="E520" r:id="rId519"/>
-    <hyperlink ref="E521" r:id="rId520"/>
-    <hyperlink ref="E522" r:id="rId521"/>
-    <hyperlink ref="E523" r:id="rId522"/>
-    <hyperlink ref="E524" r:id="rId523"/>
-    <hyperlink ref="E525" r:id="rId524"/>
-    <hyperlink ref="E526" r:id="rId525"/>
-    <hyperlink ref="E527" r:id="rId526"/>
-    <hyperlink ref="E528" r:id="rId527"/>
-    <hyperlink ref="E529" r:id="rId528"/>
-    <hyperlink ref="E530" r:id="rId529"/>
-    <hyperlink ref="E531" r:id="rId530"/>
-    <hyperlink ref="E532" r:id="rId531"/>
-    <hyperlink ref="E533" r:id="rId532"/>
-    <hyperlink ref="E534" r:id="rId533"/>
-    <hyperlink ref="E535" r:id="rId534"/>
-    <hyperlink ref="E536" r:id="rId535"/>
-    <hyperlink ref="E537" r:id="rId536"/>
-    <hyperlink ref="E538" r:id="rId537"/>
-    <hyperlink ref="E539" r:id="rId538"/>
-    <hyperlink ref="E540" r:id="rId539"/>
-    <hyperlink ref="E541" r:id="rId540"/>
-    <hyperlink ref="E542" r:id="rId541"/>
-    <hyperlink ref="E543" r:id="rId542"/>
-    <hyperlink ref="E544" r:id="rId543"/>
-    <hyperlink ref="E545" r:id="rId544"/>
-    <hyperlink ref="E546" r:id="rId545"/>
-    <hyperlink ref="E547" r:id="rId546"/>
-    <hyperlink ref="E548" r:id="rId547"/>
-    <hyperlink ref="E549" r:id="rId548"/>
-    <hyperlink ref="E550" r:id="rId549"/>
-    <hyperlink ref="E551" r:id="rId550"/>
-    <hyperlink ref="E552" r:id="rId551"/>
-    <hyperlink ref="E553" r:id="rId552"/>
-    <hyperlink ref="E554" r:id="rId553"/>
-    <hyperlink ref="E555" r:id="rId554"/>
-    <hyperlink ref="E556" r:id="rId555"/>
-    <hyperlink ref="E557" r:id="rId556"/>
-    <hyperlink ref="E558" r:id="rId557"/>
-    <hyperlink ref="E559" r:id="rId558"/>
-    <hyperlink ref="E560" r:id="rId559"/>
-    <hyperlink ref="E561" r:id="rId560"/>
-    <hyperlink ref="E562" r:id="rId561"/>
-    <hyperlink ref="E563" r:id="rId562"/>
-    <hyperlink ref="E564" r:id="rId563"/>
-    <hyperlink ref="E565" r:id="rId564"/>
-    <hyperlink ref="E566" r:id="rId565"/>
-    <hyperlink ref="E567" r:id="rId566"/>
-    <hyperlink ref="E568" r:id="rId567"/>
-    <hyperlink ref="E569" r:id="rId568"/>
-    <hyperlink ref="E570" r:id="rId569"/>
-    <hyperlink ref="E571" r:id="rId570"/>
-    <hyperlink ref="E572" r:id="rId571"/>
-    <hyperlink ref="E573" r:id="rId572"/>
-    <hyperlink ref="E574" r:id="rId573"/>
-    <hyperlink ref="E575" r:id="rId574"/>
-    <hyperlink ref="E576" r:id="rId575"/>
-    <hyperlink ref="E577" r:id="rId576"/>
-    <hyperlink ref="E578" r:id="rId577"/>
-    <hyperlink ref="E579" r:id="rId578"/>
-    <hyperlink ref="E580" r:id="rId579"/>
-    <hyperlink ref="E581" r:id="rId580"/>
-    <hyperlink ref="E582" r:id="rId581"/>
-    <hyperlink ref="E583" r:id="rId582"/>
-    <hyperlink ref="E584" r:id="rId583"/>
-    <hyperlink ref="E585" r:id="rId584"/>
-    <hyperlink ref="E586" r:id="rId585"/>
-    <hyperlink ref="E587" r:id="rId586"/>
-    <hyperlink ref="E588" r:id="rId587"/>
-    <hyperlink ref="E589" r:id="rId588"/>
-    <hyperlink ref="E590" r:id="rId589"/>
-    <hyperlink ref="E591" r:id="rId590"/>
-    <hyperlink ref="E592" r:id="rId591"/>
-    <hyperlink ref="E593" r:id="rId592"/>
-    <hyperlink ref="E594" r:id="rId593"/>
-    <hyperlink ref="E595" r:id="rId594"/>
-    <hyperlink ref="E596" r:id="rId595"/>
-    <hyperlink ref="E597" r:id="rId596"/>
-    <hyperlink ref="E598" r:id="rId597"/>
-    <hyperlink ref="E599" r:id="rId598"/>
-    <hyperlink ref="E600" r:id="rId599"/>
-    <hyperlink ref="E601" r:id="rId600"/>
-    <hyperlink ref="E602" r:id="rId601"/>
-    <hyperlink ref="E603" r:id="rId602"/>
-    <hyperlink ref="E604" r:id="rId603"/>
-    <hyperlink ref="E605" r:id="rId604"/>
-    <hyperlink ref="E606" r:id="rId605"/>
-    <hyperlink ref="E607" r:id="rId606"/>
-    <hyperlink ref="E608" r:id="rId607"/>
-    <hyperlink ref="E609" r:id="rId608"/>
-    <hyperlink ref="E610" r:id="rId609"/>
-    <hyperlink ref="E611" r:id="rId610"/>
-    <hyperlink ref="E612" r:id="rId611"/>
-    <hyperlink ref="E613" r:id="rId612"/>
-    <hyperlink ref="E614" r:id="rId613"/>
-    <hyperlink ref="E615" r:id="rId614"/>
-    <hyperlink ref="E616" r:id="rId615"/>
-    <hyperlink ref="E617" r:id="rId616"/>
-    <hyperlink ref="E618" r:id="rId617"/>
-    <hyperlink ref="E619" r:id="rId618"/>
-    <hyperlink ref="E620" r:id="rId619"/>
-    <hyperlink ref="E621" r:id="rId620"/>
-    <hyperlink ref="E622" r:id="rId621"/>
-    <hyperlink ref="E623" r:id="rId622"/>
-    <hyperlink ref="E624" r:id="rId623"/>
-    <hyperlink ref="E625" r:id="rId624"/>
-    <hyperlink ref="E626" r:id="rId625"/>
-    <hyperlink ref="E627" r:id="rId626"/>
-    <hyperlink ref="E628" r:id="rId627"/>
-    <hyperlink ref="E629" r:id="rId628"/>
-    <hyperlink ref="E630" r:id="rId629"/>
-    <hyperlink ref="E631" r:id="rId630"/>
-    <hyperlink ref="E632" r:id="rId631"/>
-    <hyperlink ref="E633" r:id="rId632"/>
-    <hyperlink ref="E634" r:id="rId633"/>
-    <hyperlink ref="E635" r:id="rId634"/>
-    <hyperlink ref="E636" r:id="rId635"/>
-    <hyperlink ref="E637" r:id="rId636"/>
-    <hyperlink ref="E638" r:id="rId637"/>
-    <hyperlink ref="E639" r:id="rId638"/>
-    <hyperlink ref="E640" r:id="rId639"/>
-    <hyperlink ref="E641" r:id="rId640"/>
-    <hyperlink ref="E642" r:id="rId641"/>
-    <hyperlink ref="E643" r:id="rId642"/>
-    <hyperlink ref="E644" r:id="rId643"/>
-    <hyperlink ref="E645" r:id="rId644"/>
-    <hyperlink ref="E646" r:id="rId645"/>
-    <hyperlink ref="E647" r:id="rId646"/>
-    <hyperlink ref="E648" r:id="rId647"/>
-    <hyperlink ref="E649" r:id="rId648"/>
-    <hyperlink ref="E650" r:id="rId649"/>
-    <hyperlink ref="E651" r:id="rId650"/>
-    <hyperlink ref="E652" r:id="rId651"/>
-    <hyperlink ref="E653" r:id="rId652"/>
-    <hyperlink ref="E654" r:id="rId653"/>
-    <hyperlink ref="E655" r:id="rId654"/>
-    <hyperlink ref="E656" r:id="rId655"/>
-    <hyperlink ref="E657" r:id="rId656"/>
-    <hyperlink ref="E658" r:id="rId657"/>
-    <hyperlink ref="E659" r:id="rId658"/>
-    <hyperlink ref="E660" r:id="rId659"/>
-    <hyperlink ref="E661" r:id="rId660"/>
-    <hyperlink ref="E662" r:id="rId661"/>
-    <hyperlink ref="E663" r:id="rId662"/>
-    <hyperlink ref="E664" r:id="rId663"/>
-    <hyperlink ref="E665" r:id="rId664"/>
-    <hyperlink ref="E666" r:id="rId665"/>
-    <hyperlink ref="E667" r:id="rId666"/>
-    <hyperlink ref="E668" r:id="rId667"/>
-    <hyperlink ref="E669" r:id="rId668"/>
-    <hyperlink ref="E670" r:id="rId669"/>
-    <hyperlink ref="E671" r:id="rId670"/>
-    <hyperlink ref="E672" r:id="rId671"/>
-    <hyperlink ref="E673" r:id="rId672"/>
-    <hyperlink ref="E674" r:id="rId673"/>
-    <hyperlink ref="E675" r:id="rId674"/>
-    <hyperlink ref="E676" r:id="rId675"/>
-    <hyperlink ref="E677" r:id="rId676"/>
-    <hyperlink ref="E678" r:id="rId677"/>
-    <hyperlink ref="E679" r:id="rId678"/>
-    <hyperlink ref="E680" r:id="rId679"/>
-    <hyperlink ref="E681" r:id="rId680"/>
-    <hyperlink ref="E682" r:id="rId681"/>
-    <hyperlink ref="E683" r:id="rId682"/>
-    <hyperlink ref="E684" r:id="rId683"/>
-    <hyperlink ref="E685" r:id="rId684"/>
-    <hyperlink ref="E686" r:id="rId685"/>
-    <hyperlink ref="E687" r:id="rId686"/>
-    <hyperlink ref="E688" r:id="rId687"/>
-    <hyperlink ref="E689" r:id="rId688"/>
-    <hyperlink ref="E690" r:id="rId689"/>
-    <hyperlink ref="E691" r:id="rId690"/>
-    <hyperlink ref="E692" r:id="rId691"/>
-    <hyperlink ref="E693" r:id="rId692"/>
-    <hyperlink ref="E694" r:id="rId693"/>
-    <hyperlink ref="E695" r:id="rId694"/>
-    <hyperlink ref="E696" r:id="rId695"/>
-    <hyperlink ref="E697" r:id="rId696"/>
-    <hyperlink ref="E698" r:id="rId697"/>
-    <hyperlink ref="E699" r:id="rId698"/>
-    <hyperlink ref="E700" r:id="rId699"/>
-    <hyperlink ref="E701" r:id="rId700"/>
-    <hyperlink ref="E702" r:id="rId701"/>
-    <hyperlink ref="E703" r:id="rId702"/>
-    <hyperlink ref="E704" r:id="rId703"/>
-    <hyperlink ref="E705" r:id="rId704"/>
-    <hyperlink ref="E706" r:id="rId705"/>
-    <hyperlink ref="E707" r:id="rId706"/>
-    <hyperlink ref="E708" r:id="rId707"/>
-    <hyperlink ref="E709" r:id="rId708"/>
-    <hyperlink ref="E710" r:id="rId709"/>
-    <hyperlink ref="E711" r:id="rId710"/>
-    <hyperlink ref="E712" r:id="rId711"/>
-    <hyperlink ref="E713" r:id="rId712"/>
-    <hyperlink ref="E714" r:id="rId713"/>
-    <hyperlink ref="E715" r:id="rId714"/>
-    <hyperlink ref="E716" r:id="rId715"/>
-    <hyperlink ref="E717" r:id="rId716"/>
-    <hyperlink ref="E718" r:id="rId717"/>
-    <hyperlink ref="E719" r:id="rId718"/>
-    <hyperlink ref="E720" r:id="rId719"/>
-    <hyperlink ref="E721" r:id="rId720"/>
-    <hyperlink ref="E722" r:id="rId721"/>
-    <hyperlink ref="E723" r:id="rId722"/>
-    <hyperlink ref="E724" r:id="rId723"/>
-    <hyperlink ref="E725" r:id="rId724"/>
-    <hyperlink ref="E726" r:id="rId725"/>
-    <hyperlink ref="E727" r:id="rId726"/>
-    <hyperlink ref="E728" r:id="rId727"/>
-    <hyperlink ref="E729" r:id="rId728"/>
-    <hyperlink ref="E730" r:id="rId729"/>
-    <hyperlink ref="E731" r:id="rId730"/>
-    <hyperlink ref="E732" r:id="rId731"/>
-    <hyperlink ref="E733" r:id="rId732"/>
-    <hyperlink ref="E734" r:id="rId733"/>
-    <hyperlink ref="E735" r:id="rId734"/>
-    <hyperlink ref="E736" r:id="rId735"/>
-    <hyperlink ref="E737" r:id="rId736"/>
-    <hyperlink ref="E738" r:id="rId737"/>
-    <hyperlink ref="E739" r:id="rId738"/>
-    <hyperlink ref="E740" r:id="rId739"/>
-    <hyperlink ref="E741" r:id="rId740"/>
-    <hyperlink ref="E742" r:id="rId741"/>
-    <hyperlink ref="E743" r:id="rId742"/>
-    <hyperlink ref="E744" r:id="rId743"/>
-    <hyperlink ref="E745" r:id="rId744"/>
-    <hyperlink ref="E746" r:id="rId745"/>
-    <hyperlink ref="E747" r:id="rId746"/>
-    <hyperlink ref="E748" r:id="rId747"/>
-    <hyperlink ref="E749" r:id="rId748"/>
-    <hyperlink ref="E750" r:id="rId749"/>
-    <hyperlink ref="E751" r:id="rId750"/>
-    <hyperlink ref="E752" r:id="rId751"/>
-    <hyperlink ref="E753" r:id="rId752"/>
-    <hyperlink ref="E754" r:id="rId753"/>
-    <hyperlink ref="E755" r:id="rId754"/>
-    <hyperlink ref="E756" r:id="rId755"/>
-    <hyperlink ref="E757" r:id="rId756"/>
-    <hyperlink ref="E758" r:id="rId757"/>
-    <hyperlink ref="E759" r:id="rId758"/>
-    <hyperlink ref="E760" r:id="rId759"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="E132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="E145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="E154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="E160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="E170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="E191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="E193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="E195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="E198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="E200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="E202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="E205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E222" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E226" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E227" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E228" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E229" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E230" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E231" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E232" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E233" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E234" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E235" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E236" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E237" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E238" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E239" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E240" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E241" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E242" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E243" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E244" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E245" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E246" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E247" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E248" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E249" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E250" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E251" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E252" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E253" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E254" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E255" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E256" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E257" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E258" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E259" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E260" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E261" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E262" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E263" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E264" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E265" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E266" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E267" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E268" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E269" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E270" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="E271" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="E272" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="E273" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="E274" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="E275" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="E276" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="E277" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="E278" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="E279" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="E280" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="E281" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="E282" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="E283" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="E284" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="E285" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="E286" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="E287" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="E288" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="E289" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="E290" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="E291" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="E292" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="E293" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="E294" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="E295" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="E296" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="E297" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="E298" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="E299" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="E300" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="E301" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="E302" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="E303" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="E304" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="E305" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="E306" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="E307" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="E308" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="E309" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="E310" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="E311" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="E312" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="E313" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="E314" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="E315" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="E316" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="E317" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="E318" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="E319" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="E320" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="E321" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="E322" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="E323" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="E324" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="E325" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="E326" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="E327" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="E328" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="E329" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="E330" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="E331" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="E332" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="E333" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="E334" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="E335" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="E336" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="E337" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="E338" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="E339" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="E340" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="E341" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="E342" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="E343" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="E344" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="E345" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="E346" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="E347" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="E348" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="E349" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="E350" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="E351" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="E352" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="E353" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="E354" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="E355" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="E356" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="E357" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="E358" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="E359" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="E360" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="E361" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="E362" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="E363" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="E364" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="E365" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="E366" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="E367" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="E368" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="E369" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="E370" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="E371" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="E372" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="E373" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="E374" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="E375" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="E376" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="E377" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="E378" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="E379" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="E380" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="E381" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="E382" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="E383" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="E384" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="E385" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="E386" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="E387" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="E388" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="E389" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="E390" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="E391" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="E392" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="E393" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="E394" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="E395" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="E396" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="E397" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="E398" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="E399" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="E400" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="E401" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="E402" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="E403" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="E404" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="E405" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="E406" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="E407" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="E408" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="E409" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="E410" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="E411" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="E412" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="E413" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="E414" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="E415" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="E416" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="E417" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="E418" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="E419" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="E420" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="E421" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="E422" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="E423" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="E424" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="E425" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="E426" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="E427" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="E428" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="E429" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="E430" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="E431" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="E432" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="E433" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="E434" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="E435" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="E436" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="E437" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="E438" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="E439" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="E440" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="E441" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="E442" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="E443" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="E444" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="E445" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="E446" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="E447" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="E448" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="E449" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="E450" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="E451" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="E452" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="E453" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="E454" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="E455" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="E456" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="E457" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="E458" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="E459" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="E460" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="E461" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="E462" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="E463" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="E464" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="E465" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="E466" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="E467" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="E468" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="E469" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="E470" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="E471" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="E472" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="E473" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="E474" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="E475" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="E476" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="E477" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="E478" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="E479" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="E480" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="E481" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="E482" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="E483" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="E484" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="E485" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="E486" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="E487" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="E488" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="E489" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="E490" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="E491" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="E492" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="E493" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="E494" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="E495" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="E496" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="E497" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="E498" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="E499" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="E500" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="E501" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="E502" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="E503" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="E504" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="E505" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="E506" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="E507" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="E508" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="E509" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="E510" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="E511" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="E512" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="E513" r:id="rId512" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="E514" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="E515" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="E516" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="E517" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="E518" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="E519" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="E520" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="E521" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="E522" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="E523" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="E524" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="E525" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="E526" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="E527" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="E528" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="E529" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="E530" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="E531" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="E532" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="E533" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="E534" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="E535" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="E536" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="E537" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="E538" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="E539" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="E540" r:id="rId539" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="E541" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="E542" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="E543" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="E544" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="E545" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="E546" r:id="rId545" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="E547" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="E548" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="E549" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="E550" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="E551" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="E552" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="E553" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="E554" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="E555" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="E556" r:id="rId555" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="E557" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="E558" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="E559" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="E560" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
+    <hyperlink ref="E561" r:id="rId560" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
+    <hyperlink ref="E562" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="E563" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="E564" r:id="rId563" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="E565" r:id="rId564" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="E566" r:id="rId565" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="E567" r:id="rId566" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="E568" r:id="rId567" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="E569" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="E570" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="E571" r:id="rId570" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="E572" r:id="rId571" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="E573" r:id="rId572" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="E574" r:id="rId573" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="E575" r:id="rId574" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="E576" r:id="rId575" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="E577" r:id="rId576" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="E578" r:id="rId577" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="E579" r:id="rId578" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="E580" r:id="rId579" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="E581" r:id="rId580" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="E582" r:id="rId581" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="E583" r:id="rId582" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="E584" r:id="rId583" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="E585" r:id="rId584" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="E586" r:id="rId585" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="E587" r:id="rId586" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="E588" r:id="rId587" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="E589" r:id="rId588" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="E590" r:id="rId589" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="E591" r:id="rId590" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="E592" r:id="rId591" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="E593" r:id="rId592" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="E594" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="E595" r:id="rId594" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="E596" r:id="rId595" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="E597" r:id="rId596" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="E598" r:id="rId597" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="E599" r:id="rId598" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="E600" r:id="rId599" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="E601" r:id="rId600" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
+    <hyperlink ref="E602" r:id="rId601" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="E603" r:id="rId602" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
+    <hyperlink ref="E604" r:id="rId603" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="E605" r:id="rId604" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
+    <hyperlink ref="E606" r:id="rId605" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="E607" r:id="rId606" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
+    <hyperlink ref="E608" r:id="rId607" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
+    <hyperlink ref="E609" r:id="rId608" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
+    <hyperlink ref="E610" r:id="rId609" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
+    <hyperlink ref="E611" r:id="rId610" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
+    <hyperlink ref="E612" r:id="rId611" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
+    <hyperlink ref="E613" r:id="rId612" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
+    <hyperlink ref="E614" r:id="rId613" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
+    <hyperlink ref="E615" r:id="rId614" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
+    <hyperlink ref="E616" r:id="rId615" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
+    <hyperlink ref="E617" r:id="rId616" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
+    <hyperlink ref="E618" r:id="rId617" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
+    <hyperlink ref="E619" r:id="rId618" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
+    <hyperlink ref="E620" r:id="rId619" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
+    <hyperlink ref="E621" r:id="rId620" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
+    <hyperlink ref="E622" r:id="rId621" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
+    <hyperlink ref="E623" r:id="rId622" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
+    <hyperlink ref="E624" r:id="rId623" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
+    <hyperlink ref="E625" r:id="rId624" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
+    <hyperlink ref="E626" r:id="rId625" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
+    <hyperlink ref="E627" r:id="rId626" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
+    <hyperlink ref="E628" r:id="rId627" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
+    <hyperlink ref="E629" r:id="rId628" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
+    <hyperlink ref="E630" r:id="rId629" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
+    <hyperlink ref="E631" r:id="rId630" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
+    <hyperlink ref="E632" r:id="rId631" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
+    <hyperlink ref="E633" r:id="rId632" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
+    <hyperlink ref="E634" r:id="rId633" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
+    <hyperlink ref="E635" r:id="rId634" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
+    <hyperlink ref="E636" r:id="rId635" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
+    <hyperlink ref="E637" r:id="rId636" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
+    <hyperlink ref="E638" r:id="rId637" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
+    <hyperlink ref="E639" r:id="rId638" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
+    <hyperlink ref="E640" r:id="rId639" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
+    <hyperlink ref="E641" r:id="rId640" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
+    <hyperlink ref="E642" r:id="rId641" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
+    <hyperlink ref="E643" r:id="rId642" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
+    <hyperlink ref="E644" r:id="rId643" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
+    <hyperlink ref="E645" r:id="rId644" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
+    <hyperlink ref="E646" r:id="rId645" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
+    <hyperlink ref="E647" r:id="rId646" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
+    <hyperlink ref="E648" r:id="rId647" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
+    <hyperlink ref="E649" r:id="rId648" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
+    <hyperlink ref="E650" r:id="rId649" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
+    <hyperlink ref="E651" r:id="rId650" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
+    <hyperlink ref="E652" r:id="rId651" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
+    <hyperlink ref="E653" r:id="rId652" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
+    <hyperlink ref="E654" r:id="rId653" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
+    <hyperlink ref="E655" r:id="rId654" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
+    <hyperlink ref="E656" r:id="rId655" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
+    <hyperlink ref="E657" r:id="rId656" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
+    <hyperlink ref="E658" r:id="rId657" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
+    <hyperlink ref="E659" r:id="rId658" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
+    <hyperlink ref="E660" r:id="rId659" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
+    <hyperlink ref="E661" r:id="rId660" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
+    <hyperlink ref="E662" r:id="rId661" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
+    <hyperlink ref="E663" r:id="rId662" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
+    <hyperlink ref="E664" r:id="rId663" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
+    <hyperlink ref="E665" r:id="rId664" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
+    <hyperlink ref="E666" r:id="rId665" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
+    <hyperlink ref="E667" r:id="rId666" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
+    <hyperlink ref="E668" r:id="rId667" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
+    <hyperlink ref="E669" r:id="rId668" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
+    <hyperlink ref="E670" r:id="rId669" xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
+    <hyperlink ref="E671" r:id="rId670" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
+    <hyperlink ref="E672" r:id="rId671" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
+    <hyperlink ref="E673" r:id="rId672" xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
+    <hyperlink ref="E674" r:id="rId673" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
+    <hyperlink ref="E675" r:id="rId674" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
+    <hyperlink ref="E676" r:id="rId675" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
+    <hyperlink ref="E677" r:id="rId676" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
+    <hyperlink ref="E678" r:id="rId677" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
+    <hyperlink ref="E679" r:id="rId678" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
+    <hyperlink ref="E680" r:id="rId679" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
+    <hyperlink ref="E681" r:id="rId680" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
+    <hyperlink ref="E682" r:id="rId681" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
+    <hyperlink ref="E683" r:id="rId682" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
+    <hyperlink ref="E684" r:id="rId683" xr:uid="{00000000-0004-0000-0000-0000AA020000}"/>
+    <hyperlink ref="E685" r:id="rId684" xr:uid="{00000000-0004-0000-0000-0000AB020000}"/>
+    <hyperlink ref="E686" r:id="rId685" xr:uid="{00000000-0004-0000-0000-0000AC020000}"/>
+    <hyperlink ref="E687" r:id="rId686" xr:uid="{00000000-0004-0000-0000-0000AD020000}"/>
+    <hyperlink ref="E688" r:id="rId687" xr:uid="{00000000-0004-0000-0000-0000AE020000}"/>
+    <hyperlink ref="E689" r:id="rId688" xr:uid="{00000000-0004-0000-0000-0000AF020000}"/>
+    <hyperlink ref="E690" r:id="rId689" xr:uid="{00000000-0004-0000-0000-0000B0020000}"/>
+    <hyperlink ref="E691" r:id="rId690" xr:uid="{00000000-0004-0000-0000-0000B1020000}"/>
+    <hyperlink ref="E692" r:id="rId691" xr:uid="{00000000-0004-0000-0000-0000B2020000}"/>
+    <hyperlink ref="E693" r:id="rId692" xr:uid="{00000000-0004-0000-0000-0000B3020000}"/>
+    <hyperlink ref="E694" r:id="rId693" xr:uid="{00000000-0004-0000-0000-0000B4020000}"/>
+    <hyperlink ref="E695" r:id="rId694" xr:uid="{00000000-0004-0000-0000-0000B5020000}"/>
+    <hyperlink ref="E696" r:id="rId695" xr:uid="{00000000-0004-0000-0000-0000B6020000}"/>
+    <hyperlink ref="E697" r:id="rId696" xr:uid="{00000000-0004-0000-0000-0000B7020000}"/>
+    <hyperlink ref="E698" r:id="rId697" xr:uid="{00000000-0004-0000-0000-0000B8020000}"/>
+    <hyperlink ref="E699" r:id="rId698" xr:uid="{00000000-0004-0000-0000-0000B9020000}"/>
+    <hyperlink ref="E700" r:id="rId699" xr:uid="{00000000-0004-0000-0000-0000BA020000}"/>
+    <hyperlink ref="E701" r:id="rId700" xr:uid="{00000000-0004-0000-0000-0000BB020000}"/>
+    <hyperlink ref="E702" r:id="rId701" xr:uid="{00000000-0004-0000-0000-0000BC020000}"/>
+    <hyperlink ref="E703" r:id="rId702" xr:uid="{00000000-0004-0000-0000-0000BD020000}"/>
+    <hyperlink ref="E704" r:id="rId703" xr:uid="{00000000-0004-0000-0000-0000BE020000}"/>
+    <hyperlink ref="E705" r:id="rId704" xr:uid="{00000000-0004-0000-0000-0000BF020000}"/>
+    <hyperlink ref="E706" r:id="rId705" xr:uid="{00000000-0004-0000-0000-0000C0020000}"/>
+    <hyperlink ref="E707" r:id="rId706" xr:uid="{00000000-0004-0000-0000-0000C1020000}"/>
+    <hyperlink ref="E708" r:id="rId707" xr:uid="{00000000-0004-0000-0000-0000C2020000}"/>
+    <hyperlink ref="E709" r:id="rId708" xr:uid="{00000000-0004-0000-0000-0000C3020000}"/>
+    <hyperlink ref="E710" r:id="rId709" xr:uid="{00000000-0004-0000-0000-0000C4020000}"/>
+    <hyperlink ref="E711" r:id="rId710" xr:uid="{00000000-0004-0000-0000-0000C5020000}"/>
+    <hyperlink ref="E712" r:id="rId711" xr:uid="{00000000-0004-0000-0000-0000C6020000}"/>
+    <hyperlink ref="E713" r:id="rId712" xr:uid="{00000000-0004-0000-0000-0000C7020000}"/>
+    <hyperlink ref="E714" r:id="rId713" xr:uid="{00000000-0004-0000-0000-0000C8020000}"/>
+    <hyperlink ref="E715" r:id="rId714" xr:uid="{00000000-0004-0000-0000-0000C9020000}"/>
+    <hyperlink ref="E716" r:id="rId715" xr:uid="{00000000-0004-0000-0000-0000CA020000}"/>
+    <hyperlink ref="E717" r:id="rId716" xr:uid="{00000000-0004-0000-0000-0000CB020000}"/>
+    <hyperlink ref="E718" r:id="rId717" xr:uid="{00000000-0004-0000-0000-0000CC020000}"/>
+    <hyperlink ref="E719" r:id="rId718" xr:uid="{00000000-0004-0000-0000-0000CD020000}"/>
+    <hyperlink ref="E720" r:id="rId719" xr:uid="{00000000-0004-0000-0000-0000CE020000}"/>
+    <hyperlink ref="E721" r:id="rId720" xr:uid="{00000000-0004-0000-0000-0000CF020000}"/>
+    <hyperlink ref="E722" r:id="rId721" xr:uid="{00000000-0004-0000-0000-0000D0020000}"/>
+    <hyperlink ref="E723" r:id="rId722" xr:uid="{00000000-0004-0000-0000-0000D1020000}"/>
+    <hyperlink ref="E724" r:id="rId723" xr:uid="{00000000-0004-0000-0000-0000D2020000}"/>
+    <hyperlink ref="E725" r:id="rId724" xr:uid="{00000000-0004-0000-0000-0000D3020000}"/>
+    <hyperlink ref="E726" r:id="rId725" xr:uid="{00000000-0004-0000-0000-0000D4020000}"/>
+    <hyperlink ref="E727" r:id="rId726" xr:uid="{00000000-0004-0000-0000-0000D5020000}"/>
+    <hyperlink ref="E728" r:id="rId727" xr:uid="{00000000-0004-0000-0000-0000D6020000}"/>
+    <hyperlink ref="E729" r:id="rId728" xr:uid="{00000000-0004-0000-0000-0000D7020000}"/>
+    <hyperlink ref="E730" r:id="rId729" xr:uid="{00000000-0004-0000-0000-0000D8020000}"/>
+    <hyperlink ref="E731" r:id="rId730" xr:uid="{00000000-0004-0000-0000-0000D9020000}"/>
+    <hyperlink ref="E732" r:id="rId731" xr:uid="{00000000-0004-0000-0000-0000DA020000}"/>
+    <hyperlink ref="E733" r:id="rId732" xr:uid="{00000000-0004-0000-0000-0000DB020000}"/>
+    <hyperlink ref="E734" r:id="rId733" xr:uid="{00000000-0004-0000-0000-0000DC020000}"/>
+    <hyperlink ref="E735" r:id="rId734" xr:uid="{00000000-0004-0000-0000-0000DD020000}"/>
+    <hyperlink ref="E736" r:id="rId735" xr:uid="{00000000-0004-0000-0000-0000DE020000}"/>
+    <hyperlink ref="E737" r:id="rId736" xr:uid="{00000000-0004-0000-0000-0000DF020000}"/>
+    <hyperlink ref="E738" r:id="rId737" xr:uid="{00000000-0004-0000-0000-0000E0020000}"/>
+    <hyperlink ref="E739" r:id="rId738" xr:uid="{00000000-0004-0000-0000-0000E1020000}"/>
+    <hyperlink ref="E740" r:id="rId739" xr:uid="{00000000-0004-0000-0000-0000E2020000}"/>
+    <hyperlink ref="E741" r:id="rId740" xr:uid="{00000000-0004-0000-0000-0000E3020000}"/>
+    <hyperlink ref="E742" r:id="rId741" xr:uid="{00000000-0004-0000-0000-0000E4020000}"/>
+    <hyperlink ref="E743" r:id="rId742" xr:uid="{00000000-0004-0000-0000-0000E5020000}"/>
+    <hyperlink ref="E744" r:id="rId743" xr:uid="{00000000-0004-0000-0000-0000E6020000}"/>
+    <hyperlink ref="E745" r:id="rId744" xr:uid="{00000000-0004-0000-0000-0000E7020000}"/>
+    <hyperlink ref="E746" r:id="rId745" xr:uid="{00000000-0004-0000-0000-0000E8020000}"/>
+    <hyperlink ref="E747" r:id="rId746" xr:uid="{00000000-0004-0000-0000-0000E9020000}"/>
+    <hyperlink ref="E748" r:id="rId747" xr:uid="{00000000-0004-0000-0000-0000EA020000}"/>
+    <hyperlink ref="E749" r:id="rId748" xr:uid="{00000000-0004-0000-0000-0000EB020000}"/>
+    <hyperlink ref="E750" r:id="rId749" xr:uid="{00000000-0004-0000-0000-0000EC020000}"/>
+    <hyperlink ref="E751" r:id="rId750" xr:uid="{00000000-0004-0000-0000-0000ED020000}"/>
+    <hyperlink ref="E752" r:id="rId751" xr:uid="{00000000-0004-0000-0000-0000EE020000}"/>
+    <hyperlink ref="E753" r:id="rId752" xr:uid="{00000000-0004-0000-0000-0000EF020000}"/>
+    <hyperlink ref="E754" r:id="rId753" xr:uid="{00000000-0004-0000-0000-0000F0020000}"/>
+    <hyperlink ref="E755" r:id="rId754" xr:uid="{00000000-0004-0000-0000-0000F1020000}"/>
+    <hyperlink ref="E756" r:id="rId755" xr:uid="{00000000-0004-0000-0000-0000F2020000}"/>
+    <hyperlink ref="E757" r:id="rId756" xr:uid="{00000000-0004-0000-0000-0000F3020000}"/>
+    <hyperlink ref="E758" r:id="rId757" xr:uid="{00000000-0004-0000-0000-0000F4020000}"/>
+    <hyperlink ref="E759" r:id="rId758" xr:uid="{00000000-0004-0000-0000-0000F5020000}"/>
+    <hyperlink ref="E760" r:id="rId759" xr:uid="{00000000-0004-0000-0000-0000F6020000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId760"/>
+  </tableParts>
 </worksheet>
 </file>